--- a/results/cvicici_bez_cviceni.xlsx
+++ b/results/cvicici_bez_cviceni.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>nazev</t>
   </si>
@@ -40,27 +40,27 @@
     <t>Information Security</t>
   </si>
   <si>
+    <t>Mikroprocesory a senzory v praxi I</t>
+  </si>
+  <si>
     <t>Mikroprocesory a senzory v praxi II</t>
   </si>
   <si>
-    <t>Mikroprocesory a senzory v praxi I</t>
-  </si>
-  <si>
     <t>Automatické řízení</t>
   </si>
   <si>
     <t>Analogová elektronika</t>
   </si>
   <si>
+    <t>Algoritmizace a programování II</t>
+  </si>
+  <si>
+    <t>Algoritmizace a programování I</t>
+  </si>
+  <si>
     <t>Python and R for Data Science</t>
   </si>
   <si>
-    <t>Algoritmizace a programování II</t>
-  </si>
-  <si>
-    <t>Algoritmizace a programování I</t>
-  </si>
-  <si>
     <t>Objektově orientované návrhové vzory</t>
   </si>
   <si>
@@ -79,76 +79,46 @@
     <t>0177</t>
   </si>
   <si>
+    <t>0164</t>
+  </si>
+  <si>
     <t>0171</t>
   </si>
   <si>
-    <t>0164</t>
-  </si>
-  <si>
     <t>AUC</t>
   </si>
   <si>
     <t>KANE</t>
   </si>
   <si>
+    <t>ANE</t>
+  </si>
+  <si>
     <t>KAEL</t>
   </si>
   <si>
-    <t>ANE</t>
+    <t>APR2</t>
+  </si>
+  <si>
+    <t>APR1</t>
   </si>
   <si>
     <t>EPYR</t>
   </si>
   <si>
-    <t>APR2</t>
-  </si>
-  <si>
-    <t>APR1</t>
+    <t>OONV</t>
   </si>
   <si>
     <t>KOONV</t>
-  </si>
-  <si>
-    <t>OONV</t>
-  </si>
-  <si>
-    <t>3188</t>
-  </si>
-  <si>
-    <t>3458</t>
-  </si>
-  <si>
-    <t>4190</t>
-  </si>
-  <si>
-    <t>4195</t>
-  </si>
-  <si>
-    <t>4685</t>
-  </si>
-  <si>
-    <t>4746</t>
-  </si>
-  <si>
-    <t>5039</t>
-  </si>
-  <si>
-    <t>5205</t>
-  </si>
-  <si>
-    <t>5232</t>
-  </si>
-  <si>
-    <t>8514</t>
-  </si>
-  <si>
-    <t>8753</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -178,17 +148,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf/>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -200,7 +176,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="nazev" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
-    <tableColumn id="3" name="cviciciUcitIdno" dataDxfId="0"/>
+    <tableColumn id="3" name="cviciciUcitIdno" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -515,8 +491,8 @@
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
+      <c r="C2" s="2">
+        <v>3188</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -526,8 +502,8 @@
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
+      <c r="C3" s="2">
+        <v>3458</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -537,8 +513,8 @@
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>34</v>
+      <c r="C4" s="2">
+        <v>4190</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -548,8 +524,8 @@
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
+      <c r="C5" s="2">
+        <v>4195</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -559,8 +535,8 @@
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
+      <c r="C6" s="2">
+        <v>4685</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -570,8 +546,8 @@
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
+      <c r="C7" s="2">
+        <v>4746</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -581,8 +557,8 @@
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
+      <c r="C8" s="2">
+        <v>4746</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -592,8 +568,8 @@
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
+      <c r="C9" s="2">
+        <v>5039</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -603,8 +579,8 @@
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
+      <c r="C10" s="2">
+        <v>5205</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -614,8 +590,8 @@
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>40</v>
+      <c r="C11" s="2">
+        <v>5232</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -625,8 +601,8 @@
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>40</v>
+      <c r="C12" s="2">
+        <v>5232</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -636,8 +612,8 @@
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
+      <c r="C13" s="2">
+        <v>5232</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -647,8 +623,8 @@
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
+      <c r="C14" s="2">
+        <v>8514</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -658,8 +634,8 @@
       <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>41</v>
+      <c r="C15" s="2">
+        <v>8514</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -669,8 +645,8 @@
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
+      <c r="C16" s="2">
+        <v>8514</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -680,8 +656,8 @@
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>42</v>
+      <c r="C17" s="2">
+        <v>8753</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -691,8 +667,8 @@
       <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>42</v>
+      <c r="C18" s="2">
+        <v>8753</v>
       </c>
     </row>
   </sheetData>

--- a/results/cvicici_bez_cviceni.xlsx
+++ b/results/cvicici_bez_cviceni.xlsx
@@ -40,12 +40,12 @@
     <t>Information Security</t>
   </si>
   <si>
+    <t>Mikroprocesory a senzory v praxi II</t>
+  </si>
+  <si>
     <t>Mikroprocesory a senzory v praxi I</t>
   </si>
   <si>
-    <t>Mikroprocesory a senzory v praxi II</t>
-  </si>
-  <si>
     <t>Automatické řízení</t>
   </si>
   <si>
@@ -79,22 +79,22 @@
     <t>0177</t>
   </si>
   <si>
+    <t>0171</t>
+  </si>
+  <si>
     <t>0164</t>
   </si>
   <si>
-    <t>0171</t>
-  </si>
-  <si>
     <t>AUC</t>
   </si>
   <si>
+    <t>ANE</t>
+  </si>
+  <si>
+    <t>KAEL</t>
+  </si>
+  <si>
     <t>KANE</t>
-  </si>
-  <si>
-    <t>ANE</t>
-  </si>
-  <si>
-    <t>KAEL</t>
   </si>
   <si>
     <t>APR2</t>

--- a/results/cvicici_bez_cviceni.xlsx
+++ b/results/cvicici_bez_cviceni.xlsx
@@ -52,15 +52,15 @@
     <t>Analogová elektronika</t>
   </si>
   <si>
+    <t>Python and R for Data Science</t>
+  </si>
+  <si>
     <t>Algoritmizace a programování II</t>
   </si>
   <si>
     <t>Algoritmizace a programování I</t>
   </si>
   <si>
-    <t>Python and R for Data Science</t>
-  </si>
-  <si>
     <t>Objektově orientované návrhové vzory</t>
   </si>
   <si>
@@ -97,13 +97,13 @@
     <t>KANE</t>
   </si>
   <si>
+    <t>EPYR</t>
+  </si>
+  <si>
     <t>APR2</t>
   </si>
   <si>
     <t>APR1</t>
-  </si>
-  <si>
-    <t>EPYR</t>
   </si>
   <si>
     <t>OONV</t>

--- a/results/cvicici_bez_cviceni.xlsx
+++ b/results/cvicici_bez_cviceni.xlsx
@@ -91,10 +91,10 @@
     <t>ANE</t>
   </si>
   <si>
+    <t>KANE</t>
+  </si>
+  <si>
     <t>KAEL</t>
-  </si>
-  <si>
-    <t>KANE</t>
   </si>
   <si>
     <t>EPYR</t>

--- a/results/cvicici_bez_cviceni.xlsx
+++ b/results/cvicici_bez_cviceni.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="191">
   <si>
     <t>nazev</t>
   </si>
@@ -25,91 +25,569 @@
     <t>cviciciUcitIdno</t>
   </si>
   <si>
-    <t>Teoretická informatika a matematika</t>
+    <t>Fyzika pevných látek I</t>
+  </si>
+  <si>
+    <t>Demografie</t>
+  </si>
+  <si>
+    <t>Geometrie</t>
+  </si>
+  <si>
+    <t>Fyziologie a mol. bio. eukar. buňky I</t>
+  </si>
+  <si>
+    <t>Fyziologie živočichů a člověka</t>
+  </si>
+  <si>
+    <t>Proseminář řešení fyzikálních úloh</t>
+  </si>
+  <si>
+    <t>Fyzikální praktikum C</t>
+  </si>
+  <si>
+    <t>Proseminář řešení fyzikálních úloh A ZŠ</t>
+  </si>
+  <si>
+    <t>Průběžná pedagogická praxe ZŠ</t>
+  </si>
+  <si>
+    <t>Didaktická a laboratorní technika</t>
+  </si>
+  <si>
+    <t>Souvislá pedagogická praxe II - ZŠ</t>
+  </si>
+  <si>
+    <t>Exkurze</t>
+  </si>
+  <si>
+    <t>Matematický proseminář</t>
+  </si>
+  <si>
+    <t>Souhrnný seminář - počítačové modelování</t>
+  </si>
+  <si>
+    <t>Kvantová mechanika</t>
+  </si>
+  <si>
+    <t>Teorie elektromagnetického pole</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika II</t>
+  </si>
+  <si>
+    <t>Seminář katedry II</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky II</t>
+  </si>
+  <si>
+    <t>Fyzika I</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky I</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teorie elektromag. pole</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teoretické fyziky I</t>
+  </si>
+  <si>
+    <t>Seminář katedry I</t>
+  </si>
+  <si>
+    <t>Seminář katedry</t>
+  </si>
+  <si>
+    <t>Potenciál kulturní krajiny a GIS</t>
+  </si>
+  <si>
+    <t>Metody geografického výzkumu krajiny</t>
+  </si>
+  <si>
+    <t>Dějiny chemie</t>
+  </si>
+  <si>
+    <t>Didaktika chemie II - SŠ</t>
+  </si>
+  <si>
+    <t>Vybrané matematické metody ve fyzice</t>
+  </si>
+  <si>
+    <t>Experimentální využití elmg. vln F</t>
+  </si>
+  <si>
+    <t>VK- Praktikum mikrovlnné techniky D</t>
+  </si>
+  <si>
+    <t>Experimentální využití elmg. vln B</t>
+  </si>
+  <si>
+    <t>Řešení obvodu RLC</t>
+  </si>
+  <si>
+    <t>Počítačové modelování I</t>
+  </si>
+  <si>
+    <t>PVK - Hromadné zpracování dat</t>
+  </si>
+  <si>
+    <t>Systém kvality a vyhodnocování dat</t>
+  </si>
+  <si>
+    <t>Počítač. modelování - spojité modelování</t>
+  </si>
+  <si>
+    <t>Základy financí</t>
+  </si>
+  <si>
+    <t>Finanční analýza</t>
+  </si>
+  <si>
+    <t>Somatologie</t>
+  </si>
+  <si>
+    <t>Ekofyziologie</t>
+  </si>
+  <si>
+    <t>Biologie parazitů</t>
+  </si>
+  <si>
+    <t>Obecná zoologie</t>
+  </si>
+  <si>
+    <t>Met. analýz mat. 
+využ. el. mikroskopie</t>
+  </si>
+  <si>
+    <t>Metody analýz materiálů</t>
+  </si>
+  <si>
+    <t>Algologie</t>
+  </si>
+  <si>
+    <t>Didaktika geografie I</t>
+  </si>
+  <si>
+    <t>Labor. Techniq. in Mol. and Cell Biology</t>
+  </si>
+  <si>
+    <t>VK-Česká republika a EU</t>
+  </si>
+  <si>
+    <t>VK - Konverzace němčiny pro geografy</t>
+  </si>
+  <si>
+    <t>Medicína katastrof</t>
+  </si>
+  <si>
+    <t>Technologie ochrany životního prostředí</t>
+  </si>
+  <si>
+    <t>Ekotoxikologie</t>
+  </si>
+  <si>
+    <t>Toxikologie rostl. a živočišných toxinů</t>
   </si>
   <si>
     <t>Počítačová kriminalita</t>
   </si>
   <si>
-    <t>Modelování podnikových procesů</t>
+    <t>Welfare Assessment of zoo animals</t>
+  </si>
+  <si>
+    <t>Preparace a konzervování přírodnin II</t>
+  </si>
+  <si>
+    <t>Funkce a struktura buněčných membrán</t>
+  </si>
+  <si>
+    <t>Základy bioinženýrství</t>
   </si>
   <si>
     <t>Počítačové sítě a protokoly</t>
   </si>
   <si>
+    <t>Matematika I</t>
+  </si>
+  <si>
+    <t>Neziskový sektor a regionální rozvoj</t>
+  </si>
+  <si>
+    <t>Explantátové kultury rostlin I</t>
+  </si>
+  <si>
+    <t>Právní aspekty vzdělávání a předpisy</t>
+  </si>
+  <si>
     <t>Information Security</t>
   </si>
   <si>
     <t>Mikroprocesory a senzory v praxi II</t>
   </si>
   <si>
-    <t>Mikroprocesory a senzory v praxi I</t>
-  </si>
-  <si>
     <t>Automatické řízení</t>
   </si>
   <si>
-    <t>Analogová elektronika</t>
+    <t>Životní prostředí a udržitelný rozvoj</t>
+  </si>
+  <si>
+    <t>Terénní cvičení ze SG</t>
+  </si>
+  <si>
+    <t>English for Science</t>
+  </si>
+  <si>
+    <t>Zoologické terénní cvičení</t>
+  </si>
+  <si>
+    <t>Srovnávací anatom. a morfol. obratlovců</t>
+  </si>
+  <si>
+    <t>Ornitologie</t>
+  </si>
+  <si>
+    <t>Odběr, příprava a analýza vzorků</t>
+  </si>
+  <si>
+    <t>Přípr. a využití nanovlákenných struktur</t>
+  </si>
+  <si>
+    <t>Souvislá pedagogická praxe I - SŠ</t>
+  </si>
+  <si>
+    <t>Doučování</t>
+  </si>
+  <si>
+    <t>Didaktika biologie II</t>
+  </si>
+  <si>
+    <t>Didaktika biologie I</t>
+  </si>
+  <si>
+    <t>Souvislá pedagogická praxe II - SŠ</t>
+  </si>
+  <si>
+    <t>Kompozity nanočástic kovů a jejich oxidů</t>
+  </si>
+  <si>
+    <t>Apl. biologie prokaryot. a eukaryot. m.</t>
   </si>
   <si>
     <t>Python and R for Data Science</t>
   </si>
   <si>
+    <t>Algoritmizace a programování I</t>
+  </si>
+  <si>
     <t>Algoritmizace a programování II</t>
   </si>
   <si>
-    <t>Algoritmizace a programování I</t>
-  </si>
-  <si>
     <t>Objektově orientované návrhové vzory</t>
   </si>
   <si>
-    <t>YTIM</t>
+    <t>K839</t>
+  </si>
+  <si>
+    <t>FDEMO</t>
+  </si>
+  <si>
+    <t>5DEMO</t>
+  </si>
+  <si>
+    <t>P335</t>
+  </si>
+  <si>
+    <t>N016</t>
+  </si>
+  <si>
+    <t>KB502</t>
+  </si>
+  <si>
+    <t>PB502</t>
+  </si>
+  <si>
+    <t>K622</t>
+  </si>
+  <si>
+    <t>K521</t>
+  </si>
+  <si>
+    <t>P736</t>
+  </si>
+  <si>
+    <t>P732</t>
+  </si>
+  <si>
+    <t>PA31</t>
+  </si>
+  <si>
+    <t>KA35</t>
+  </si>
+  <si>
+    <t>P841</t>
+  </si>
+  <si>
+    <t>P365</t>
+  </si>
+  <si>
+    <t>KSPM</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>TEP</t>
+  </si>
+  <si>
+    <t>P607</t>
+  </si>
+  <si>
+    <t>PA52</t>
+  </si>
+  <si>
+    <t>K522</t>
+  </si>
+  <si>
+    <t>K222</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>K724</t>
+  </si>
+  <si>
+    <t>KKM</t>
+  </si>
+  <si>
+    <t>K422</t>
+  </si>
+  <si>
+    <t>P737</t>
+  </si>
+  <si>
+    <t>PD203</t>
+  </si>
+  <si>
+    <t>P938</t>
+  </si>
+  <si>
+    <t>P952</t>
+  </si>
+  <si>
+    <t>P602</t>
+  </si>
+  <si>
+    <t>M214</t>
+  </si>
+  <si>
+    <t>M409</t>
+  </si>
+  <si>
+    <t>KN16</t>
+  </si>
+  <si>
+    <t>KN22</t>
+  </si>
+  <si>
+    <t>0212</t>
+  </si>
+  <si>
+    <t>0237</t>
+  </si>
+  <si>
+    <t>0211</t>
+  </si>
+  <si>
+    <t>0218</t>
+  </si>
+  <si>
+    <t>0214</t>
+  </si>
+  <si>
+    <t>K107</t>
+  </si>
+  <si>
+    <t>P406</t>
+  </si>
+  <si>
+    <t>N111</t>
+  </si>
+  <si>
+    <t>P366</t>
+  </si>
+  <si>
+    <t>ZFIN</t>
+  </si>
+  <si>
+    <t>FINA</t>
+  </si>
+  <si>
+    <t>BK423</t>
+  </si>
+  <si>
+    <t>N051</t>
+  </si>
+  <si>
+    <t>N032</t>
+  </si>
+  <si>
+    <t>K110</t>
+  </si>
+  <si>
+    <t>BP423</t>
+  </si>
+  <si>
+    <t>AP03</t>
+  </si>
+  <si>
+    <t>AP05</t>
+  </si>
+  <si>
+    <t>N036</t>
+  </si>
+  <si>
+    <t>N001</t>
+  </si>
+  <si>
+    <t>E121</t>
+  </si>
+  <si>
+    <t>0116</t>
+  </si>
+  <si>
+    <t>0130</t>
+  </si>
+  <si>
+    <t>P518</t>
+  </si>
+  <si>
+    <t>P414</t>
+  </si>
+  <si>
+    <t>N109</t>
+  </si>
+  <si>
+    <t>P534</t>
   </si>
   <si>
     <t>0141</t>
   </si>
   <si>
-    <t>0160</t>
+    <t>E133</t>
+  </si>
+  <si>
+    <t>P416</t>
+  </si>
+  <si>
+    <t>0088</t>
+  </si>
+  <si>
+    <t>0090</t>
   </si>
   <si>
     <t>PSP</t>
   </si>
   <si>
+    <t>P106</t>
+  </si>
+  <si>
+    <t>0150</t>
+  </si>
+  <si>
+    <t>N049</t>
+  </si>
+  <si>
+    <t>N005</t>
+  </si>
+  <si>
+    <t>KN46</t>
+  </si>
+  <si>
     <t>0177</t>
   </si>
   <si>
     <t>0171</t>
   </si>
   <si>
-    <t>0164</t>
-  </si>
-  <si>
     <t>AUC</t>
   </si>
   <si>
-    <t>ANE</t>
-  </si>
-  <si>
-    <t>KANE</t>
-  </si>
-  <si>
-    <t>KAEL</t>
+    <t>P861</t>
+  </si>
+  <si>
+    <t>P839</t>
+  </si>
+  <si>
+    <t>BK401</t>
+  </si>
+  <si>
+    <t>M312</t>
+  </si>
+  <si>
+    <t>E403</t>
+  </si>
+  <si>
+    <t>B401</t>
+  </si>
+  <si>
+    <t>KB427</t>
+  </si>
+  <si>
+    <t>N060</t>
+  </si>
+  <si>
+    <t>PB427</t>
+  </si>
+  <si>
+    <t>MA205</t>
+  </si>
+  <si>
+    <t>N112</t>
+  </si>
+  <si>
+    <t>PD55</t>
+  </si>
+  <si>
+    <t>P707A</t>
+  </si>
+  <si>
+    <t>DOUC</t>
+  </si>
+  <si>
+    <t>P208</t>
+  </si>
+  <si>
+    <t>P108</t>
+  </si>
+  <si>
+    <t>P707B</t>
+  </si>
+  <si>
+    <t>PD12</t>
+  </si>
+  <si>
+    <t>ME301</t>
   </si>
   <si>
     <t>EPYR</t>
   </si>
   <si>
+    <t>APR1</t>
+  </si>
+  <si>
     <t>APR2</t>
   </si>
   <si>
-    <t>APR1</t>
+    <t>KOONV</t>
   </si>
   <si>
     <t>OONV</t>
-  </si>
-  <si>
-    <t>KOONV</t>
   </si>
 </sst>
 </file>
@@ -171,8 +649,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:C18" totalsRowShown="0">
-  <autoFilter ref="A1:C18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:C107" totalsRowShown="0">
+  <autoFilter ref="A1:C107"/>
   <tableColumns count="3">
     <tableColumn id="1" name="nazev" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -467,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,10 +967,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2">
-        <v>3188</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -500,98 +978,98 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2">
-        <v>3458</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2">
-        <v>4190</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2">
-        <v>4195</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2">
-        <v>4685</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2">
-        <v>4746</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2">
-        <v>4746</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2">
-        <v>5039</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2">
-        <v>5205</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2">
-        <v>5232</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -599,75 +1077,1054 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2">
-        <v>5232</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2">
-        <v>5232</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2">
-        <v>8514</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="C15" s="2">
-        <v>8514</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="C16" s="2">
-        <v>8514</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="C17" s="2">
-        <v>8753</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="2">
+      <c r="B35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="2">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="2">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="2">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="2">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="2">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="2">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" s="2">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="2">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="2">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="2">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" s="2">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" s="2">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="2">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" s="2">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="2">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="2">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" s="2">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" s="2">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" s="2">
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" s="2">
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C78" s="2">
+        <v>4685</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C79" s="2">
+        <v>4746</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="2">
+        <v>5039</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="2">
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" s="2">
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" s="2">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" s="2">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" s="2">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86" s="2">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" s="2">
+        <v>5472</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C88" s="2">
+        <v>5472</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" s="2">
+        <v>5472</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C90" s="2">
+        <v>5472</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C91" s="2">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C92" s="2">
+        <v>7416</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C93" s="2">
+        <v>7805</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C94" s="2">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C95" s="2">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C96" s="2">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C97" s="2">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C98" s="2">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C99" s="2">
+        <v>8074</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C100" s="2">
+        <v>8154</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" s="2">
+        <v>8310</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C102" s="2">
+        <v>8310</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C103" s="2">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C104" s="2">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C105" s="2">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C106" s="2">
+        <v>8753</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C107" s="2">
         <v>8753</v>
       </c>
     </row>

--- a/results/cvicici_bez_cviceni.xlsx
+++ b/results/cvicici_bez_cviceni.xlsx
@@ -40,112 +40,115 @@
     <t>Fyziologie živočichů a člověka</t>
   </si>
   <si>
+    <t>Proseminář řešení fyzikálních úloh A ZŠ</t>
+  </si>
+  <si>
+    <t>Didaktická a laboratorní technika</t>
+  </si>
+  <si>
+    <t>Exkurze</t>
+  </si>
+  <si>
+    <t>Fyzikální praktikum C</t>
+  </si>
+  <si>
+    <t>Průběžná pedagogická praxe ZŠ</t>
+  </si>
+  <si>
     <t>Proseminář řešení fyzikálních úloh</t>
   </si>
   <si>
-    <t>Fyzikální praktikum C</t>
-  </si>
-  <si>
-    <t>Proseminář řešení fyzikálních úloh A ZŠ</t>
-  </si>
-  <si>
-    <t>Průběžná pedagogická praxe ZŠ</t>
-  </si>
-  <si>
-    <t>Didaktická a laboratorní technika</t>
-  </si>
-  <si>
     <t>Souvislá pedagogická praxe II - ZŠ</t>
   </si>
   <si>
-    <t>Exkurze</t>
-  </si>
-  <si>
     <t>Matematický proseminář</t>
   </si>
   <si>
+    <t>Fyzika I</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teoretické fyziky I</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky I</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teorie elektromag. pole</t>
+  </si>
+  <si>
+    <t>Seminář katedry I</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky II</t>
+  </si>
+  <si>
     <t>Souhrnný seminář - počítačové modelování</t>
   </si>
   <si>
+    <t>Teorie elektromagnetického pole</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika</t>
+  </si>
+  <si>
+    <t>Seminář katedry II</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika II</t>
+  </si>
+  <si>
     <t>Kvantová mechanika</t>
   </si>
   <si>
-    <t>Teorie elektromagnetického pole</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika II</t>
-  </si>
-  <si>
-    <t>Seminář katedry II</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky II</t>
-  </si>
-  <si>
-    <t>Fyzika I</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teorie elektromag. pole</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>Seminář katedry I</t>
-  </si>
-  <si>
     <t>Seminář katedry</t>
   </si>
   <si>
+    <t>Metody geografického výzkumu krajiny</t>
+  </si>
+  <si>
     <t>Potenciál kulturní krajiny a GIS</t>
   </si>
   <si>
-    <t>Metody geografického výzkumu krajiny</t>
-  </si>
-  <si>
     <t>Dějiny chemie</t>
   </si>
   <si>
     <t>Didaktika chemie II - SŠ</t>
   </si>
   <si>
+    <t>Experimentální využití elmg. vln F</t>
+  </si>
+  <si>
+    <t>Řešení obvodu RLC</t>
+  </si>
+  <si>
     <t>Vybrané matematické metody ve fyzice</t>
   </si>
   <si>
-    <t>Experimentální využití elmg. vln F</t>
+    <t>Experimentální využití elmg. vln B</t>
   </si>
   <si>
     <t>VK- Praktikum mikrovlnné techniky D</t>
   </si>
   <si>
-    <t>Experimentální využití elmg. vln B</t>
-  </si>
-  <si>
-    <t>Řešení obvodu RLC</t>
+    <t>PVK - Hromadné zpracování dat</t>
   </si>
   <si>
     <t>Počítačové modelování I</t>
   </si>
   <si>
-    <t>PVK - Hromadné zpracování dat</t>
-  </si>
-  <si>
     <t>Systém kvality a vyhodnocování dat</t>
   </si>
   <si>
     <t>Počítač. modelování - spojité modelování</t>
   </si>
   <si>
+    <t>Finanční analýza</t>
+  </si>
+  <si>
     <t>Základy financí</t>
   </si>
   <si>
-    <t>Finanční analýza</t>
+    <t>Obecná zoologie</t>
   </si>
   <si>
     <t>Somatologie</t>
@@ -155,9 +158,6 @@
   </si>
   <si>
     <t>Biologie parazitů</t>
-  </si>
-  <si>
-    <t>Obecná zoologie</t>
   </si>
   <si>
     <t>Met. analýz mat. 
@@ -233,24 +233,24 @@
     <t>Automatické řízení</t>
   </si>
   <si>
+    <t>Terénní cvičení ze SG</t>
+  </si>
+  <si>
+    <t>English for Science</t>
+  </si>
+  <si>
     <t>Životní prostředí a udržitelný rozvoj</t>
   </si>
   <si>
-    <t>Terénní cvičení ze SG</t>
-  </si>
-  <si>
-    <t>English for Science</t>
-  </si>
-  <si>
     <t>Zoologické terénní cvičení</t>
   </si>
   <si>
+    <t>Ornitologie</t>
+  </si>
+  <si>
     <t>Srovnávací anatom. a morfol. obratlovců</t>
   </si>
   <si>
-    <t>Ornitologie</t>
-  </si>
-  <si>
     <t>Odběr, příprava a analýza vzorků</t>
   </si>
   <si>
@@ -260,33 +260,33 @@
     <t>Souvislá pedagogická praxe I - SŠ</t>
   </si>
   <si>
+    <t>Souvislá pedagogická praxe II - SŠ</t>
+  </si>
+  <si>
+    <t>Didaktika biologie II</t>
+  </si>
+  <si>
     <t>Doučování</t>
   </si>
   <si>
-    <t>Didaktika biologie II</t>
-  </si>
-  <si>
     <t>Didaktika biologie I</t>
   </si>
   <si>
-    <t>Souvislá pedagogická praxe II - SŠ</t>
-  </si>
-  <si>
     <t>Kompozity nanočástic kovů a jejich oxidů</t>
   </si>
   <si>
     <t>Apl. biologie prokaryot. a eukaryot. m.</t>
   </si>
   <si>
+    <t>Algoritmizace a programování II</t>
+  </si>
+  <si>
     <t>Python and R for Data Science</t>
   </si>
   <si>
     <t>Algoritmizace a programování I</t>
   </si>
   <si>
-    <t>Algoritmizace a programování II</t>
-  </si>
-  <si>
     <t>Objektově orientované návrhové vzory</t>
   </si>
   <si>
@@ -311,121 +311,124 @@
     <t>PB502</t>
   </si>
   <si>
+    <t>P736</t>
+  </si>
+  <si>
+    <t>PA31</t>
+  </si>
+  <si>
+    <t>P841</t>
+  </si>
+  <si>
+    <t>K521</t>
+  </si>
+  <si>
+    <t>P732</t>
+  </si>
+  <si>
     <t>K622</t>
   </si>
   <si>
-    <t>K521</t>
-  </si>
-  <si>
-    <t>P736</t>
-  </si>
-  <si>
-    <t>P732</t>
-  </si>
-  <si>
-    <t>PA31</t>
-  </si>
-  <si>
     <t>KA35</t>
   </si>
   <si>
-    <t>P841</t>
-  </si>
-  <si>
     <t>P365</t>
   </si>
   <si>
+    <t>K222</t>
+  </si>
+  <si>
+    <t>P938</t>
+  </si>
+  <si>
+    <t>K422</t>
+  </si>
+  <si>
+    <t>PD203</t>
+  </si>
+  <si>
+    <t>P952</t>
+  </si>
+  <si>
+    <t>K522</t>
+  </si>
+  <si>
     <t>KSPM</t>
   </si>
   <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>TEP</t>
+  </si>
+  <si>
+    <t>K724</t>
+  </si>
+  <si>
+    <t>P737</t>
+  </si>
+  <si>
+    <t>PA52</t>
+  </si>
+  <si>
+    <t>P607</t>
+  </si>
+  <si>
+    <t>KKM</t>
+  </si>
+  <si>
     <t>KM</t>
   </si>
   <si>
-    <t>TEP</t>
-  </si>
-  <si>
-    <t>P607</t>
-  </si>
-  <si>
-    <t>PA52</t>
-  </si>
-  <si>
-    <t>K522</t>
-  </si>
-  <si>
-    <t>K222</t>
-  </si>
-  <si>
-    <t>SPM</t>
-  </si>
-  <si>
-    <t>K724</t>
-  </si>
-  <si>
-    <t>KKM</t>
-  </si>
-  <si>
-    <t>K422</t>
-  </si>
-  <si>
-    <t>P737</t>
-  </si>
-  <si>
-    <t>PD203</t>
-  </si>
-  <si>
-    <t>P938</t>
-  </si>
-  <si>
-    <t>P952</t>
-  </si>
-  <si>
     <t>P602</t>
   </si>
   <si>
+    <t>M409</t>
+  </si>
+  <si>
     <t>M214</t>
   </si>
   <si>
-    <t>M409</t>
-  </si>
-  <si>
     <t>KN16</t>
   </si>
   <si>
     <t>KN22</t>
   </si>
   <si>
+    <t>0237</t>
+  </si>
+  <si>
+    <t>0214</t>
+  </si>
+  <si>
     <t>0212</t>
   </si>
   <si>
-    <t>0237</t>
+    <t>0218</t>
   </si>
   <si>
     <t>0211</t>
   </si>
   <si>
-    <t>0218</t>
-  </si>
-  <si>
-    <t>0214</t>
+    <t>P406</t>
   </si>
   <si>
     <t>K107</t>
   </si>
   <si>
-    <t>P406</t>
-  </si>
-  <si>
     <t>N111</t>
   </si>
   <si>
     <t>P366</t>
   </si>
   <si>
+    <t>FINA</t>
+  </si>
+  <si>
     <t>ZFIN</t>
   </si>
   <si>
-    <t>FINA</t>
+    <t>K110</t>
   </si>
   <si>
     <t>BK423</t>
@@ -434,15 +437,12 @@
     <t>N051</t>
   </si>
   <si>
+    <t>BP423</t>
+  </si>
+  <si>
     <t>N032</t>
   </si>
   <si>
-    <t>K110</t>
-  </si>
-  <si>
-    <t>BP423</t>
-  </si>
-  <si>
     <t>AP03</t>
   </si>
   <si>
@@ -518,36 +518,36 @@
     <t>AUC</t>
   </si>
   <si>
+    <t>P839</t>
+  </si>
+  <si>
     <t>P861</t>
   </si>
   <si>
-    <t>P839</t>
+    <t>M312</t>
+  </si>
+  <si>
+    <t>E403</t>
   </si>
   <si>
     <t>BK401</t>
   </si>
   <si>
-    <t>M312</t>
-  </si>
-  <si>
-    <t>E403</t>
-  </si>
-  <si>
     <t>B401</t>
   </si>
   <si>
     <t>KB427</t>
   </si>
   <si>
+    <t>MA205</t>
+  </si>
+  <si>
     <t>N060</t>
   </si>
   <si>
     <t>PB427</t>
   </si>
   <si>
-    <t>MA205</t>
-  </si>
-  <si>
     <t>N112</t>
   </si>
   <si>
@@ -557,31 +557,31 @@
     <t>P707A</t>
   </si>
   <si>
+    <t>P707B</t>
+  </si>
+  <si>
+    <t>P208</t>
+  </si>
+  <si>
     <t>DOUC</t>
   </si>
   <si>
-    <t>P208</t>
-  </si>
-  <si>
     <t>P108</t>
   </si>
   <si>
-    <t>P707B</t>
-  </si>
-  <si>
     <t>PD12</t>
   </si>
   <si>
     <t>ME301</t>
   </si>
   <si>
+    <t>APR2</t>
+  </si>
+  <si>
     <t>EPYR</t>
   </si>
   <si>
     <t>APR1</t>
-  </si>
-  <si>
-    <t>APR2</t>
   </si>
   <si>
     <t>KOONV</t>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>113</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>115</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>117</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>118</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>119</v>
@@ -1470,10 +1470,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C48" s="2">
         <v>1383</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>140</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>141</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>172</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>175</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>176</v>
@@ -1943,10 +1943,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C91" s="2">
         <v>6120</v>
@@ -2053,10 +2053,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C101" s="2">
         <v>8310</v>
@@ -2064,10 +2064,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C102" s="2">
         <v>8310</v>

--- a/results/cvicici_bez_cviceni.xlsx
+++ b/results/cvicici_bez_cviceni.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="318">
   <si>
     <t>nazev</t>
   </si>
@@ -28,112 +28,157 @@
     <t>Fyzika pevných látek I</t>
   </si>
   <si>
+    <t>Základy počítačové fyziky</t>
+  </si>
+  <si>
     <t>Demografie</t>
   </si>
   <si>
     <t>Geometrie</t>
   </si>
   <si>
+    <t>Diplomová práce I</t>
+  </si>
+  <si>
+    <t>Fyziologie živočichů a člověka</t>
+  </si>
+  <si>
     <t>Fyziologie a mol. bio. eukar. buňky I</t>
   </si>
   <si>
-    <t>Fyziologie živočichů a člověka</t>
-  </si>
-  <si>
     <t>Proseminář řešení fyzikálních úloh A ZŠ</t>
   </si>
   <si>
     <t>Didaktická a laboratorní technika</t>
   </si>
   <si>
+    <t>Fyzikální praktikum C</t>
+  </si>
+  <si>
+    <t>Souvislá pedagogická praxe II - ZŠ</t>
+  </si>
+  <si>
+    <t>Proseminář řešení fyzikálních úloh</t>
+  </si>
+  <si>
+    <t>Proseminář řešení fyzikálních úloh A</t>
+  </si>
+  <si>
+    <t>Průběžná pedagogická praxe ZŠ</t>
+  </si>
+  <si>
     <t>Exkurze</t>
   </si>
   <si>
-    <t>Fyzikální praktikum C</t>
-  </si>
-  <si>
-    <t>Průběžná pedagogická praxe ZŠ</t>
-  </si>
-  <si>
-    <t>Proseminář řešení fyzikálních úloh</t>
-  </si>
-  <si>
-    <t>Souvislá pedagogická praxe II - ZŠ</t>
+    <t>Diplomový seminář</t>
   </si>
   <si>
     <t>Matematický proseminář</t>
   </si>
   <si>
+    <t>Vybrané partie z fyziky</t>
+  </si>
+  <si>
+    <t>Teorie elektromagnetického pole</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika I</t>
+  </si>
+  <si>
+    <t>Odborný seminář katedry A</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika II</t>
+  </si>
+  <si>
+    <t>Souhrnný seminář - počítačové modelování</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika</t>
+  </si>
+  <si>
+    <t>Seminář katedry I</t>
+  </si>
+  <si>
+    <t>Seminář katedry II</t>
+  </si>
+  <si>
     <t>Fyzika I</t>
   </si>
   <si>
+    <t>PVK - Vyb.partie z teoretické fyziky I</t>
+  </si>
+  <si>
+    <t>Seminář katedry</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teorie elektromag. pole</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky II</t>
+  </si>
+  <si>
     <t>Vybrané partie z teoretické fyziky I</t>
   </si>
   <si>
-    <t>PVK - Vyb.partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teorie elektromag. pole</t>
-  </si>
-  <si>
-    <t>Seminář katedry I</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky II</t>
-  </si>
-  <si>
-    <t>Souhrnný seminář - počítačové modelování</t>
-  </si>
-  <si>
-    <t>Teorie elektromagnetického pole</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika</t>
-  </si>
-  <si>
-    <t>Seminář katedry II</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika II</t>
-  </si>
-  <si>
     <t>Kvantová mechanika</t>
   </si>
   <si>
-    <t>Seminář katedry</t>
-  </si>
-  <si>
     <t>Metody geografického výzkumu krajiny</t>
   </si>
   <si>
     <t>Potenciál kulturní krajiny a GIS</t>
   </si>
   <si>
+    <t>Didaktika chemie II - SŠ</t>
+  </si>
+  <si>
     <t>Dějiny chemie</t>
   </si>
   <si>
-    <t>Didaktika chemie II - SŠ</t>
+    <t>VK-Programování ATMEL I</t>
+  </si>
+  <si>
+    <t>VK- Praktikum mikrovlnné techniky D</t>
+  </si>
+  <si>
+    <t>Řešení obvodu RLC</t>
+  </si>
+  <si>
+    <t>Vybrané matematické metody ve fyzice</t>
   </si>
   <si>
     <t>Experimentální využití elmg. vln F</t>
   </si>
   <si>
-    <t>Řešení obvodu RLC</t>
-  </si>
-  <si>
-    <t>Vybrané matematické metody ve fyzice</t>
-  </si>
-  <si>
     <t>Experimentální využití elmg. vln B</t>
   </si>
   <si>
-    <t>VK- Praktikum mikrovlnné techniky D</t>
+    <t>Praktikum mikrovlnné techniky - aplikace</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teoretické fyziky II</t>
+  </si>
+  <si>
+    <t>Počítačové modelování II</t>
+  </si>
+  <si>
+    <t>Programování A</t>
+  </si>
+  <si>
+    <t>Počítačové modelování I</t>
+  </si>
+  <si>
+    <t>Programování B</t>
+  </si>
+  <si>
+    <t>VK-Fyzikální seminář</t>
   </si>
   <si>
     <t>PVK - Hromadné zpracování dat</t>
   </si>
   <si>
-    <t>Počítačové modelování I</t>
+    <t>Počítačové modelování III</t>
   </si>
   <si>
     <t>Systém kvality a vyhodnocování dat</t>
@@ -142,43 +187,82 @@
     <t>Počítač. modelování - spojité modelování</t>
   </si>
   <si>
+    <t>VK - Exkurze z regionální geologie</t>
+  </si>
+  <si>
     <t>Finanční analýza</t>
   </si>
   <si>
     <t>Základy financí</t>
   </si>
   <si>
+    <t>Základy matematiky</t>
+  </si>
+  <si>
+    <t>Statistika na PC</t>
+  </si>
+  <si>
+    <t>Matematika IV</t>
+  </si>
+  <si>
+    <t>Ekofyziologie</t>
+  </si>
+  <si>
+    <t>Biologie a ekologie člověka I</t>
+  </si>
+  <si>
     <t>Obecná zoologie</t>
   </si>
   <si>
+    <t>Biologie parazitů</t>
+  </si>
+  <si>
+    <t>Obecná parazitologie</t>
+  </si>
+  <si>
     <t>Somatologie</t>
   </si>
   <si>
-    <t>Ekofyziologie</t>
-  </si>
-  <si>
-    <t>Biologie parazitů</t>
+    <t>Metody analýz materiálů</t>
   </si>
   <si>
     <t>Met. analýz mat. 
 využ. el. mikroskopie</t>
   </si>
   <si>
-    <t>Metody analýz materiálů</t>
+    <t>Komplexní analýza materiálů</t>
+  </si>
+  <si>
+    <t>Metody molekulární biologie</t>
   </si>
   <si>
     <t>Algologie</t>
   </si>
   <si>
+    <t>Environmentální legislativa</t>
+  </si>
+  <si>
+    <t>Limnobiologie</t>
+  </si>
+  <si>
     <t>Didaktika geografie I</t>
   </si>
   <si>
     <t>Labor. Techniq. in Mol. and Cell Biology</t>
   </si>
   <si>
+    <t>Eliminace polutantů z fluidních systémů</t>
+  </si>
+  <si>
+    <t>Anglický jazyk II</t>
+  </si>
+  <si>
     <t>VK-Česká republika a EU</t>
   </si>
   <si>
+    <t>VK-Němčina pro geografy</t>
+  </si>
+  <si>
     <t>VK - Konverzace němčiny pro geografy</t>
   </si>
   <si>
@@ -188,12 +272,12 @@
     <t>Technologie ochrany životního prostředí</t>
   </si>
   <si>
+    <t>Toxikologie rostl. a živočišných toxinů</t>
+  </si>
+  <si>
     <t>Ekotoxikologie</t>
   </si>
   <si>
-    <t>Toxikologie rostl. a živočišných toxinů</t>
-  </si>
-  <si>
     <t>Počítačová kriminalita</t>
   </si>
   <si>
@@ -206,18 +290,45 @@
     <t>Funkce a struktura buněčných membrán</t>
   </si>
   <si>
+    <t>Základy receptorové neurofyziologie</t>
+  </si>
+  <si>
     <t>Základy bioinženýrství</t>
   </si>
   <si>
+    <t>Modelování podnikových procesů</t>
+  </si>
+  <si>
     <t>Počítačové sítě a protokoly</t>
   </si>
   <si>
     <t>Matematika I</t>
   </si>
   <si>
+    <t>Úvod do fyziky</t>
+  </si>
+  <si>
     <t>Neziskový sektor a regionální rozvoj</t>
   </si>
   <si>
+    <t>Fyzikálně chemická cvičení</t>
+  </si>
+  <si>
+    <t>Moderní elektroanal. met. - prakt. kurz</t>
+  </si>
+  <si>
+    <t>PVK - Fyzikálně chemická cvičení A</t>
+  </si>
+  <si>
+    <t>Laboratorní cvičení z fyzikální chemie</t>
+  </si>
+  <si>
+    <t>Vybrané kapitoly z geografie krajiny</t>
+  </si>
+  <si>
+    <t>Anglický jazyk A</t>
+  </si>
+  <si>
     <t>Explantátové kultury rostlin I</t>
   </si>
   <si>
@@ -227,28 +338,58 @@
     <t>Information Security</t>
   </si>
   <si>
+    <t>Mikroprocesory a senzory v praxi I</t>
+  </si>
+  <si>
     <t>Mikroprocesory a senzory v praxi II</t>
   </si>
   <si>
     <t>Automatické řízení</t>
   </si>
   <si>
+    <t>Chemické a biologické ohrožení</t>
+  </si>
+  <si>
+    <t>Ochrana přírody</t>
+  </si>
+  <si>
+    <t>Praktikum validace analytických metod</t>
+  </si>
+  <si>
     <t>Terénní cvičení ze SG</t>
   </si>
   <si>
+    <t>Životní prostředí a udržitelný rozvoj</t>
+  </si>
+  <si>
+    <t>Lokální a regionální rozvoj</t>
+  </si>
+  <si>
     <t>English for Science</t>
   </si>
   <si>
-    <t>Životní prostředí a udržitelný rozvoj</t>
-  </si>
-  <si>
     <t>Zoologické terénní cvičení</t>
   </si>
   <si>
+    <t>Srovnávací anatom. a morfol. obratlovců</t>
+  </si>
+  <si>
     <t>Ornitologie</t>
   </si>
   <si>
-    <t>Srovnávací anatom. a morfol. obratlovců</t>
+    <t>Biomedicínské mat.- přípr., char., a vl.</t>
+  </si>
+  <si>
+    <t>Geografie a dědictví krajiny</t>
+  </si>
+  <si>
+    <t>Environmental Biotechnology</t>
+  </si>
+  <si>
+    <t>Nekovové anorganické materiály</t>
+  </si>
+  <si>
+    <t>Úvod do modelování průmyslových procesů</t>
   </si>
   <si>
     <t>Odběr, příprava a analýza vzorků</t>
@@ -257,34 +398,55 @@
     <t>Přípr. a využití nanovlákenných struktur</t>
   </si>
   <si>
+    <t>Souvislá pedagogická praxe II - SŠ</t>
+  </si>
+  <si>
+    <t>Didaktika biologie II</t>
+  </si>
+  <si>
+    <t>Didaktika biologie I</t>
+  </si>
+  <si>
+    <t>Průběžná pedagogická praxe</t>
+  </si>
+  <si>
+    <t>Doučování</t>
+  </si>
+  <si>
     <t>Souvislá pedagogická praxe I - SŠ</t>
   </si>
   <si>
-    <t>Souvislá pedagogická praxe II - SŠ</t>
-  </si>
-  <si>
-    <t>Didaktika biologie II</t>
-  </si>
-  <si>
-    <t>Doučování</t>
-  </si>
-  <si>
-    <t>Didaktika biologie I</t>
-  </si>
-  <si>
     <t>Kompozity nanočástic kovů a jejich oxidů</t>
   </si>
   <si>
+    <t>Nanokompozitní materiály na bázi uhlíku</t>
+  </si>
+  <si>
+    <t>Biologie půdních mikroorganismů</t>
+  </si>
+  <si>
     <t>Apl. biologie prokaryot. a eukaryot. m.</t>
   </si>
   <si>
+    <t>Python and R for Data Science</t>
+  </si>
+  <si>
+    <t>Algoritmizace a programování I</t>
+  </si>
+  <si>
     <t>Algoritmizace a programování II</t>
   </si>
   <si>
-    <t>Python and R for Data Science</t>
-  </si>
-  <si>
-    <t>Algoritmizace a programování I</t>
+    <t>Pravděpodobnost a statistika I</t>
+  </si>
+  <si>
+    <t>Vybrané partie z matematiky</t>
+  </si>
+  <si>
+    <t>Podniková ekonomika</t>
+  </si>
+  <si>
+    <t>Pravděpodobnost a statistika II</t>
   </si>
   <si>
     <t>Objektově orientované návrhové vzory</t>
@@ -293,22 +455,34 @@
     <t>K839</t>
   </si>
   <si>
+    <t>K503</t>
+  </si>
+  <si>
     <t>FDEMO</t>
   </si>
   <si>
     <t>5DEMO</t>
   </si>
   <si>
+    <t>K312</t>
+  </si>
+  <si>
     <t>P335</t>
   </si>
   <si>
+    <t>N028</t>
+  </si>
+  <si>
+    <t>PB502</t>
+  </si>
+  <si>
+    <t>KB502</t>
+  </si>
+  <si>
     <t>N016</t>
   </si>
   <si>
-    <t>KB502</t>
-  </si>
-  <si>
-    <t>PB502</t>
+    <t>M200</t>
   </si>
   <si>
     <t>P736</t>
@@ -317,103 +491,169 @@
     <t>PA31</t>
   </si>
   <si>
+    <t>K521</t>
+  </si>
+  <si>
+    <t>KA35</t>
+  </si>
+  <si>
+    <t>K622</t>
+  </si>
+  <si>
+    <t>P622</t>
+  </si>
+  <si>
+    <t>P732</t>
+  </si>
+  <si>
     <t>P841</t>
   </si>
   <si>
-    <t>K521</t>
-  </si>
-  <si>
-    <t>P732</t>
-  </si>
-  <si>
-    <t>K622</t>
-  </si>
-  <si>
-    <t>KA35</t>
+    <t>K505</t>
   </si>
   <si>
     <t>P365</t>
   </si>
   <si>
+    <t>K414</t>
+  </si>
+  <si>
+    <t>P508</t>
+  </si>
+  <si>
+    <t>P509</t>
+  </si>
+  <si>
+    <t>P531</t>
+  </si>
+  <si>
+    <t>P607</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>K512</t>
+  </si>
+  <si>
+    <t>K724</t>
+  </si>
+  <si>
+    <t>P952</t>
+  </si>
+  <si>
+    <t>PA52</t>
+  </si>
+  <si>
+    <t>P737</t>
+  </si>
+  <si>
     <t>K222</t>
   </si>
   <si>
+    <t>P427</t>
+  </si>
+  <si>
+    <t>K422</t>
+  </si>
+  <si>
+    <t>K602</t>
+  </si>
+  <si>
+    <t>PD203</t>
+  </si>
+  <si>
+    <t>K522</t>
+  </si>
+  <si>
+    <t>P602</t>
+  </si>
+  <si>
+    <t>TEP</t>
+  </si>
+  <si>
     <t>P938</t>
   </si>
   <si>
-    <t>K422</t>
-  </si>
-  <si>
-    <t>PD203</t>
-  </si>
-  <si>
-    <t>P952</t>
-  </si>
-  <si>
-    <t>K522</t>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>KKM</t>
   </si>
   <si>
     <t>KSPM</t>
   </si>
   <si>
-    <t>SPM</t>
-  </si>
-  <si>
-    <t>TEP</t>
-  </si>
-  <si>
-    <t>K724</t>
-  </si>
-  <si>
-    <t>P737</t>
-  </si>
-  <si>
-    <t>PA52</t>
-  </si>
-  <si>
-    <t>P607</t>
-  </si>
-  <si>
-    <t>KKM</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>P602</t>
-  </si>
-  <si>
     <t>M409</t>
   </si>
   <si>
     <t>M214</t>
   </si>
   <si>
+    <t>N304</t>
+  </si>
+  <si>
     <t>KN16</t>
   </si>
   <si>
     <t>KN22</t>
   </si>
   <si>
+    <t>0175</t>
+  </si>
+  <si>
+    <t>0211</t>
+  </si>
+  <si>
+    <t>0214</t>
+  </si>
+  <si>
+    <t>0212</t>
+  </si>
+  <si>
     <t>0237</t>
   </si>
   <si>
-    <t>0214</t>
-  </si>
-  <si>
-    <t>0212</t>
-  </si>
-  <si>
     <t>0218</t>
   </si>
   <si>
-    <t>0211</t>
+    <t>0207</t>
+  </si>
+  <si>
+    <t>P522</t>
+  </si>
+  <si>
+    <t>P422</t>
+  </si>
+  <si>
+    <t>P206</t>
+  </si>
+  <si>
+    <t>K103</t>
+  </si>
+  <si>
+    <t>P103</t>
+  </si>
+  <si>
+    <t>K107</t>
+  </si>
+  <si>
+    <t>K206</t>
+  </si>
+  <si>
+    <t>P203</t>
+  </si>
+  <si>
+    <t>0204</t>
   </si>
   <si>
     <t>P406</t>
   </si>
   <si>
-    <t>K107</t>
+    <t>P401</t>
+  </si>
+  <si>
+    <t>K406</t>
   </si>
   <si>
     <t>N111</t>
@@ -422,45 +662,99 @@
     <t>P366</t>
   </si>
   <si>
+    <t>0109</t>
+  </si>
+  <si>
     <t>FINA</t>
   </si>
   <si>
     <t>ZFIN</t>
   </si>
   <si>
+    <t>K516</t>
+  </si>
+  <si>
+    <t>K409</t>
+  </si>
+  <si>
+    <t>N051</t>
+  </si>
+  <si>
+    <t>P303</t>
+  </si>
+  <si>
     <t>K110</t>
   </si>
   <si>
+    <t>N032</t>
+  </si>
+  <si>
+    <t>P323</t>
+  </si>
+  <si>
     <t>BK423</t>
   </si>
   <si>
-    <t>N051</t>
-  </si>
-  <si>
     <t>BP423</t>
   </si>
   <si>
-    <t>N032</t>
+    <t>AP05</t>
   </si>
   <si>
     <t>AP03</t>
   </si>
   <si>
-    <t>AP05</t>
+    <t>PD202</t>
+  </si>
+  <si>
+    <t>ME200</t>
+  </si>
+  <si>
+    <t>N023</t>
   </si>
   <si>
     <t>N036</t>
   </si>
   <si>
+    <t>P420</t>
+  </si>
+  <si>
+    <t>P525</t>
+  </si>
+  <si>
+    <t>BK108</t>
+  </si>
+  <si>
+    <t>K311</t>
+  </si>
+  <si>
+    <t>P528</t>
+  </si>
+  <si>
+    <t>P328</t>
+  </si>
+  <si>
+    <t>M105</t>
+  </si>
+  <si>
     <t>N001</t>
   </si>
   <si>
     <t>E121</t>
   </si>
   <si>
+    <t>N021</t>
+  </si>
+  <si>
+    <t>K411</t>
+  </si>
+  <si>
     <t>0116</t>
   </si>
   <si>
+    <t>0126</t>
+  </si>
+  <si>
     <t>0130</t>
   </si>
   <si>
@@ -470,82 +764,154 @@
     <t>P414</t>
   </si>
   <si>
+    <t>P534</t>
+  </si>
+  <si>
     <t>N109</t>
   </si>
   <si>
-    <t>P534</t>
-  </si>
-  <si>
     <t>0141</t>
   </si>
   <si>
     <t>E133</t>
   </si>
   <si>
+    <t>P419</t>
+  </si>
+  <si>
+    <t>K403</t>
+  </si>
+  <si>
     <t>P416</t>
   </si>
   <si>
     <t>0088</t>
   </si>
   <si>
+    <t>0089</t>
+  </si>
+  <si>
     <t>0090</t>
   </si>
   <si>
+    <t>0160</t>
+  </si>
+  <si>
     <t>PSP</t>
   </si>
   <si>
+    <t>K106</t>
+  </si>
+  <si>
     <t>P106</t>
   </si>
   <si>
+    <t>P112</t>
+  </si>
+  <si>
     <t>0150</t>
   </si>
   <si>
+    <t>K502</t>
+  </si>
+  <si>
+    <t>N029</t>
+  </si>
+  <si>
+    <t>P506</t>
+  </si>
+  <si>
+    <t>P532</t>
+  </si>
+  <si>
+    <t>P527</t>
+  </si>
+  <si>
+    <t>P517</t>
+  </si>
+  <si>
+    <t>0152</t>
+  </si>
+  <si>
+    <t>K100</t>
+  </si>
+  <si>
     <t>N049</t>
   </si>
   <si>
+    <t>KN46</t>
+  </si>
+  <si>
     <t>N005</t>
   </si>
   <si>
-    <t>KN46</t>
-  </si>
-  <si>
     <t>0177</t>
   </si>
   <si>
+    <t>0164</t>
+  </si>
+  <si>
     <t>0171</t>
   </si>
   <si>
     <t>AUC</t>
   </si>
   <si>
+    <t>N020</t>
+  </si>
+  <si>
+    <t>P312</t>
+  </si>
+  <si>
+    <t>M208</t>
+  </si>
+  <si>
     <t>P839</t>
   </si>
   <si>
     <t>P861</t>
   </si>
   <si>
+    <t>M203</t>
+  </si>
+  <si>
     <t>M312</t>
   </si>
   <si>
+    <t>BK401</t>
+  </si>
+  <si>
+    <t>B401</t>
+  </si>
+  <si>
+    <t>M101</t>
+  </si>
+  <si>
     <t>E403</t>
   </si>
   <si>
-    <t>BK401</t>
-  </si>
-  <si>
-    <t>B401</t>
-  </si>
-  <si>
     <t>KB427</t>
   </si>
   <si>
+    <t>N060</t>
+  </si>
+  <si>
+    <t>PB427</t>
+  </si>
+  <si>
     <t>MA205</t>
   </si>
   <si>
-    <t>N060</t>
-  </si>
-  <si>
-    <t>PB427</t>
+    <t>0156</t>
+  </si>
+  <si>
+    <t>M303</t>
+  </si>
+  <si>
+    <t>AMAT</t>
+  </si>
+  <si>
+    <t>M211</t>
   </si>
   <si>
     <t>N112</t>
@@ -554,34 +920,49 @@
     <t>PD55</t>
   </si>
   <si>
+    <t>P707B</t>
+  </si>
+  <si>
+    <t>P208</t>
+  </si>
+  <si>
+    <t>P108</t>
+  </si>
+  <si>
+    <t>P705</t>
+  </si>
+  <si>
+    <t>DOUC</t>
+  </si>
+  <si>
     <t>P707A</t>
   </si>
   <si>
-    <t>P707B</t>
-  </si>
-  <si>
-    <t>P208</t>
-  </si>
-  <si>
-    <t>DOUC</t>
-  </si>
-  <si>
-    <t>P108</t>
-  </si>
-  <si>
     <t>PD12</t>
   </si>
   <si>
+    <t>PD08</t>
+  </si>
+  <si>
     <t>ME301</t>
   </si>
   <si>
+    <t>EPYR</t>
+  </si>
+  <si>
+    <t>APR1</t>
+  </si>
+  <si>
     <t>APR2</t>
   </si>
   <si>
-    <t>EPYR</t>
-  </si>
-  <si>
-    <t>APR1</t>
+    <t>K413</t>
+  </si>
+  <si>
+    <t>P232</t>
+  </si>
+  <si>
+    <t>PEK</t>
   </si>
   <si>
     <t>KOONV</t>
@@ -649,8 +1030,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:C107" totalsRowShown="0">
-  <autoFilter ref="A1:C107"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:C195" totalsRowShown="0">
+  <autoFilter ref="A1:C195"/>
   <tableColumns count="3">
     <tableColumn id="1" name="nazev" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -945,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -967,7 +1348,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="C2" s="2">
         <v>69</v>
@@ -978,18 +1359,18 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="C3" s="2">
-        <v>130</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="C4" s="2">
         <v>130</v>
@@ -1000,10 +1381,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="C5" s="2">
-        <v>269</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1011,21 +1392,21 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="C6" s="2">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="C7" s="2">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1033,7 +1414,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="C8" s="2">
         <v>281</v>
@@ -1044,51 +1425,51 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="C9" s="2">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="C10" s="2">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="C11" s="2">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2">
         <v>302</v>
@@ -1096,10 +1477,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="C14" s="2">
         <v>302</v>
@@ -1107,10 +1488,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="C15" s="2">
         <v>302</v>
@@ -1118,98 +1499,98 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="C16" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="C17" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="C18" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="C19" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="C20" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="C21" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="C22" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="C23" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="C24" s="2">
         <v>307</v>
@@ -1217,10 +1598,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="C25" s="2">
         <v>307</v>
@@ -1228,10 +1609,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="C26" s="2">
         <v>307</v>
@@ -1242,7 +1623,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="C27" s="2">
         <v>307</v>
@@ -1253,7 +1634,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="C28" s="2">
         <v>307</v>
@@ -1261,10 +1642,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="C29" s="2">
         <v>307</v>
@@ -1272,10 +1653,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="C30" s="2">
         <v>307</v>
@@ -1286,7 +1667,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="C31" s="2">
         <v>307</v>
@@ -1297,7 +1678,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="C32" s="2">
         <v>307</v>
@@ -1305,826 +1686,1794 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="C33" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="C34" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="C35" s="2">
-        <v>336</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="C36" s="2">
-        <v>336</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="C37" s="2">
-        <v>605</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="C38" s="2">
-        <v>605</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="C39" s="2">
-        <v>605</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="C40" s="2">
-        <v>605</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="C41" s="2">
-        <v>605</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="C42" s="2">
-        <v>612</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="C43" s="2">
-        <v>612</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="C44" s="2">
-        <v>719</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="C45" s="2">
-        <v>816</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="C46" s="2">
-        <v>929</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="C47" s="2">
-        <v>929</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="C48" s="2">
-        <v>1383</v>
+        <v>336</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="C49" s="2">
-        <v>1546</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="C50" s="2">
-        <v>1546</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="C51" s="2">
-        <v>1546</v>
+        <v>605</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="C52" s="2">
-        <v>1546</v>
+        <v>605</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="C53" s="2">
-        <v>1546</v>
+        <v>605</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="C54" s="2">
-        <v>1590</v>
+        <v>605</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="C55" s="2">
-        <v>1590</v>
+        <v>605</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="C56" s="2">
-        <v>1999</v>
+        <v>605</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="C57" s="2">
-        <v>2232</v>
+        <v>605</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="C58" s="2">
-        <v>2441</v>
+        <v>606</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="C59" s="2">
-        <v>2758</v>
+        <v>606</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="C60" s="2">
-        <v>2812</v>
+        <v>612</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="C61" s="2">
-        <v>3066</v>
+        <v>612</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="C62" s="2">
-        <v>3175</v>
+        <v>612</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="C63" s="2">
-        <v>3176</v>
+        <v>612</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>152</v>
+        <v>207</v>
       </c>
       <c r="C64" s="2">
-        <v>3176</v>
+        <v>612</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="C65" s="2">
-        <v>3458</v>
+        <v>612</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>154</v>
+        <v>209</v>
       </c>
       <c r="C66" s="2">
-        <v>3796</v>
+        <v>612</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="C67" s="2">
-        <v>3797</v>
+        <v>612</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="C68" s="2">
-        <v>3798</v>
+        <v>612</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="C69" s="2">
-        <v>4175</v>
+        <v>612</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="C70" s="2">
-        <v>4177</v>
+        <v>719</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="C71" s="2">
-        <v>4195</v>
+        <v>816</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="C72" s="2">
-        <v>4208</v>
+        <v>827</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="C73" s="2">
-        <v>4221</v>
+        <v>929</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="C74" s="2">
-        <v>4227</v>
+        <v>929</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="C75" s="2">
-        <v>4390</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="C76" s="2">
-        <v>4581</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="C77" s="2">
-        <v>4581</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>164</v>
+        <v>219</v>
       </c>
       <c r="C78" s="2">
-        <v>4685</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="C79" s="2">
-        <v>4746</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="C80" s="2">
-        <v>5039</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="C81" s="2">
-        <v>5201</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="C82" s="2">
-        <v>5201</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="C83" s="2">
-        <v>5240</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="C84" s="2">
-        <v>5240</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="C85" s="2">
-        <v>5240</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C86" s="2">
-        <v>5240</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="C87" s="2">
-        <v>5472</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="C88" s="2">
-        <v>5472</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="C89" s="2">
-        <v>5472</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="C90" s="2">
-        <v>5472</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>136</v>
+        <v>231</v>
       </c>
       <c r="C91" s="2">
-        <v>6120</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="C92" s="2">
-        <v>7416</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="C93" s="2">
-        <v>7805</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>179</v>
+        <v>234</v>
       </c>
       <c r="C94" s="2">
-        <v>8021</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="C95" s="2">
-        <v>8021</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="C96" s="2">
-        <v>8021</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="C97" s="2">
-        <v>8021</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="C98" s="2">
-        <v>8021</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="C99" s="2">
-        <v>8074</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="C100" s="2">
-        <v>8154</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>119</v>
+        <v>241</v>
       </c>
       <c r="C101" s="2">
-        <v>8310</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>120</v>
+        <v>242</v>
       </c>
       <c r="C102" s="2">
-        <v>8310</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="C103" s="2">
-        <v>8514</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="C104" s="2">
-        <v>8514</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="C105" s="2">
-        <v>8514</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="C106" s="2">
-        <v>8753</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C107" s="2">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C108" s="2">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C109" s="2">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C110" s="2">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C111" s="2">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C112" s="2">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C113" s="2">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C114" s="2">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C115" s="2">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C116" s="2">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C117" s="2">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C118" s="2">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C119" s="2">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C120" s="2">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C121" s="2">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C107" s="2">
+      <c r="B122" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C122" s="2">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C123" s="2">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C124" s="2">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C125" s="2">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C126" s="2">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C127" s="2">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C128" s="2">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C129" s="2">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C130" s="2">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C131" s="2">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C132" s="2">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C133" s="2">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C134" s="2">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C135" s="2">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C136" s="2">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C137" s="2">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C138" s="2">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C139" s="2">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C140" s="2">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C141" s="2">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C142" s="2">
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C143" s="2">
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C144" s="2">
+        <v>4685</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C145" s="2">
+        <v>4746</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C146" s="2">
+        <v>4746</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C147" s="2">
+        <v>4757</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C148" s="2">
+        <v>5039</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C149" s="2">
+        <v>5062</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C150" s="2">
+        <v>5131</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C151" s="2">
+        <v>5135</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C152" s="2">
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C153" s="2">
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C154" s="2">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C155" s="2">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C156" s="2">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C157" s="2">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C158" s="2">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C159" s="2">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C160" s="2">
+        <v>5472</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C161" s="2">
+        <v>5472</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C162" s="2">
+        <v>5472</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C163" s="2">
+        <v>5472</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C164" s="2">
+        <v>5754</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C165" s="2">
+        <v>5854</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C166" s="2">
+        <v>5924</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C167" s="2">
+        <v>5927</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C168" s="2">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C169" s="2">
+        <v>6886</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C170" s="2">
+        <v>6886</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C171" s="2">
+        <v>7307</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C172" s="2">
+        <v>7416</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C173" s="2">
+        <v>7805</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C174" s="2">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C175" s="2">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C176" s="2">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C177" s="2">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C178" s="2">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C179" s="2">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C180" s="2">
+        <v>8074</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C181" s="2">
+        <v>8075</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C182" s="2">
+        <v>8154</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C183" s="2">
+        <v>8154</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C184" s="2">
+        <v>8310</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C185" s="2">
+        <v>8310</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C186" s="2">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C187" s="2">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C188" s="2">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C189" s="2">
+        <v>8677</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C190" s="2">
+        <v>8677</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C191" s="2">
+        <v>8677</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C192" s="2">
+        <v>8749</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C193" s="2">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C194" s="2">
+        <v>8753</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C195" s="2">
         <v>8753</v>
       </c>
     </row>

--- a/results/cvicici_bez_cviceni.xlsx
+++ b/results/cvicici_bez_cviceni.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="337">
   <si>
     <t>nazev</t>
   </si>
@@ -46,90 +46,93 @@
     <t>Fyziologie a mol. bio. eukar. buňky I</t>
   </si>
   <si>
+    <t>Průběžná pedagogická praxe ZŠ</t>
+  </si>
+  <si>
+    <t>Souvislá pedagogická praxe II - ZŠ</t>
+  </si>
+  <si>
+    <t>Proseminář řešení fyzikálních úloh</t>
+  </si>
+  <si>
+    <t>Didaktická a laboratorní technika</t>
+  </si>
+  <si>
+    <t>Proseminář řešení fyzikálních úloh A</t>
+  </si>
+  <si>
     <t>Proseminář řešení fyzikálních úloh A ZŠ</t>
   </si>
   <si>
-    <t>Didaktická a laboratorní technika</t>
+    <t>Exkurze</t>
   </si>
   <si>
     <t>Fyzikální praktikum C</t>
   </si>
   <si>
-    <t>Souvislá pedagogická praxe II - ZŠ</t>
-  </si>
-  <si>
-    <t>Proseminář řešení fyzikálních úloh</t>
-  </si>
-  <si>
-    <t>Proseminář řešení fyzikálních úloh A</t>
-  </si>
-  <si>
-    <t>Průběžná pedagogická praxe ZŠ</t>
-  </si>
-  <si>
-    <t>Exkurze</t>
+    <t>Vybrané partie z fyziky</t>
+  </si>
+  <si>
+    <t>Matematický proseminář</t>
   </si>
   <si>
     <t>Diplomový seminář</t>
   </si>
   <si>
-    <t>Matematický proseminář</t>
-  </si>
-  <si>
-    <t>Vybrané partie z fyziky</t>
+    <t>Kvantová mechanika</t>
   </si>
   <si>
     <t>Teorie elektromagnetického pole</t>
   </si>
   <si>
+    <t>Kvantová fyzika</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky I</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teoretické fyziky I</t>
+  </si>
+  <si>
+    <t>Souhrnný seminář - počítačové modelování</t>
+  </si>
+  <si>
+    <t>Seminář katedry</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teorie elektromag. pole</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika II</t>
+  </si>
+  <si>
+    <t>Fyzika I</t>
+  </si>
+  <si>
     <t>Kvantová fyzika I</t>
   </si>
   <si>
+    <t>Seminář katedry I</t>
+  </si>
+  <si>
+    <t>Seminář katedry II</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky II</t>
+  </si>
+  <si>
     <t>Odborný seminář katedry A</t>
   </si>
   <si>
-    <t>Kvantová fyzika II</t>
-  </si>
-  <si>
-    <t>Souhrnný seminář - počítačové modelování</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika</t>
-  </si>
-  <si>
-    <t>Seminář katedry I</t>
-  </si>
-  <si>
-    <t>Seminář katedry II</t>
-  </si>
-  <si>
-    <t>Fyzika I</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>Seminář katedry</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teorie elektromag. pole</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky II</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>Kvantová mechanika</t>
-  </si>
-  <si>
     <t>Metody geografického výzkumu krajiny</t>
   </si>
   <si>
     <t>Potenciál kulturní krajiny a GIS</t>
   </si>
   <si>
+    <t>VK - Geografická exkurze v ČR (5 dní)</t>
+  </si>
+  <si>
     <t>Didaktika chemie II - SŠ</t>
   </si>
   <si>
@@ -139,48 +142,51 @@
     <t>VK-Programování ATMEL I</t>
   </si>
   <si>
+    <t>Experimentální využití elmg. vln B</t>
+  </si>
+  <si>
+    <t>Řešení obvodu RLC</t>
+  </si>
+  <si>
+    <t>Experimentální využití elmg. vln F</t>
+  </si>
+  <si>
+    <t>Vybrané matematické metody ve fyzice</t>
+  </si>
+  <si>
     <t>VK- Praktikum mikrovlnné techniky D</t>
   </si>
   <si>
-    <t>Řešení obvodu RLC</t>
-  </si>
-  <si>
-    <t>Vybrané matematické metody ve fyzice</t>
-  </si>
-  <si>
-    <t>Experimentální využití elmg. vln F</t>
-  </si>
-  <si>
-    <t>Experimentální využití elmg. vln B</t>
-  </si>
-  <si>
     <t>Praktikum mikrovlnné techniky - aplikace</t>
   </si>
   <si>
     <t>Vybrané partie z teoretické fyziky II</t>
   </si>
   <si>
+    <t>Teoretická mechanika I</t>
+  </si>
+  <si>
+    <t>Počítačové modelování III</t>
+  </si>
+  <si>
+    <t>Programování A</t>
+  </si>
+  <si>
+    <t>Programování B</t>
+  </si>
+  <si>
     <t>Počítačové modelování II</t>
   </si>
   <si>
-    <t>Programování A</t>
+    <t>PVK - Hromadné zpracování dat</t>
+  </si>
+  <si>
+    <t>VK-Fyzikální seminář</t>
   </si>
   <si>
     <t>Počítačové modelování I</t>
   </si>
   <si>
-    <t>Programování B</t>
-  </si>
-  <si>
-    <t>VK-Fyzikální seminář</t>
-  </si>
-  <si>
-    <t>PVK - Hromadné zpracování dat</t>
-  </si>
-  <si>
-    <t>Počítačové modelování III</t>
-  </si>
-  <si>
     <t>Systém kvality a vyhodnocování dat</t>
   </si>
   <si>
@@ -190,12 +196,12 @@
     <t>VK - Exkurze z regionální geologie</t>
   </si>
   <si>
+    <t>Základy financí</t>
+  </si>
+  <si>
     <t>Finanční analýza</t>
   </si>
   <si>
-    <t>Základy financí</t>
-  </si>
-  <si>
     <t>Základy matematiky</t>
   </si>
   <si>
@@ -205,22 +211,25 @@
     <t>Matematika IV</t>
   </si>
   <si>
+    <t>Somatologie</t>
+  </si>
+  <si>
+    <t>Biologie parazitů</t>
+  </si>
+  <si>
+    <t>Obecná zoologie</t>
+  </si>
+  <si>
     <t>Ekofyziologie</t>
   </si>
   <si>
     <t>Biologie a ekologie člověka I</t>
   </si>
   <si>
-    <t>Obecná zoologie</t>
-  </si>
-  <si>
-    <t>Biologie parazitů</t>
-  </si>
-  <si>
     <t>Obecná parazitologie</t>
   </si>
   <si>
-    <t>Somatologie</t>
+    <t>Komplexní analýza materiálů</t>
   </si>
   <si>
     <t>Metody analýz materiálů</t>
@@ -230,9 +239,6 @@
 využ. el. mikroskopie</t>
   </si>
   <si>
-    <t>Komplexní analýza materiálů</t>
-  </si>
-  <si>
     <t>Metody molekulární biologie</t>
   </si>
   <si>
@@ -251,6 +257,9 @@
     <t>Labor. Techniq. in Mol. and Cell Biology</t>
   </si>
   <si>
+    <t>Microscopy Techniques in Biology</t>
+  </si>
+  <si>
     <t>Eliminace polutantů z fluidních systémů</t>
   </si>
   <si>
@@ -260,6 +269,9 @@
     <t>VK-Česká republika a EU</t>
   </si>
   <si>
+    <t>Geospatial data: sources and analysis</t>
+  </si>
+  <si>
     <t>VK-Němčina pro geografy</t>
   </si>
   <si>
@@ -311,18 +323,18 @@
     <t>Neziskový sektor a regionální rozvoj</t>
   </si>
   <si>
+    <t>Moderní elektroanal. met. - prakt. kurz</t>
+  </si>
+  <si>
     <t>Fyzikálně chemická cvičení</t>
   </si>
   <si>
-    <t>Moderní elektroanal. met. - prakt. kurz</t>
+    <t>Laboratorní cvičení z fyzikální chemie</t>
   </si>
   <si>
     <t>PVK - Fyzikálně chemická cvičení A</t>
   </si>
   <si>
-    <t>Laboratorní cvičení z fyzikální chemie</t>
-  </si>
-  <si>
     <t>Vybrané kapitoly z geografie krajiny</t>
   </si>
   <si>
@@ -338,10 +350,13 @@
     <t>Information Security</t>
   </si>
   <si>
+    <t>Mikroprocesory a senzory v praxi II</t>
+  </si>
+  <si>
     <t>Mikroprocesory a senzory v praxi I</t>
   </si>
   <si>
-    <t>Mikroprocesory a senzory v praxi II</t>
+    <t>Scientific inquiry and reasoning</t>
   </si>
   <si>
     <t>Automatické řízení</t>
@@ -356,30 +371,33 @@
     <t>Praktikum validace analytických metod</t>
   </si>
   <si>
+    <t>Životní prostředí a udržitelný rozvoj</t>
+  </si>
+  <si>
+    <t>Lokální a regionální rozvoj</t>
+  </si>
+  <si>
+    <t>English for Science</t>
+  </si>
+  <si>
     <t>Terénní cvičení ze SG</t>
   </si>
   <si>
-    <t>Životní prostředí a udržitelný rozvoj</t>
-  </si>
-  <si>
-    <t>Lokální a regionální rozvoj</t>
-  </si>
-  <si>
-    <t>English for Science</t>
-  </si>
-  <si>
     <t>Zoologické terénní cvičení</t>
   </si>
   <si>
+    <t>Ornitologie</t>
+  </si>
+  <si>
     <t>Srovnávací anatom. a morfol. obratlovců</t>
   </si>
   <si>
-    <t>Ornitologie</t>
-  </si>
-  <si>
     <t>Biomedicínské mat.- přípr., char., a vl.</t>
   </si>
   <si>
+    <t>Identif. a hodnocení ekosystém. služeb</t>
+  </si>
+  <si>
     <t>Geografie a dědictví krajiny</t>
   </si>
   <si>
@@ -398,24 +416,24 @@
     <t>Přípr. a využití nanovlákenných struktur</t>
   </si>
   <si>
+    <t>Didaktika biologie I</t>
+  </si>
+  <si>
+    <t>Souvislá pedagogická praxe I - SŠ</t>
+  </si>
+  <si>
+    <t>Průběžná pedagogická praxe</t>
+  </si>
+  <si>
+    <t>Doučování</t>
+  </si>
+  <si>
+    <t>Didaktika biologie II</t>
+  </si>
+  <si>
     <t>Souvislá pedagogická praxe II - SŠ</t>
   </si>
   <si>
-    <t>Didaktika biologie II</t>
-  </si>
-  <si>
-    <t>Didaktika biologie I</t>
-  </si>
-  <si>
-    <t>Průběžná pedagogická praxe</t>
-  </si>
-  <si>
-    <t>Doučování</t>
-  </si>
-  <si>
-    <t>Souvislá pedagogická praxe I - SŠ</t>
-  </si>
-  <si>
     <t>Kompozity nanočástic kovů a jejich oxidů</t>
   </si>
   <si>
@@ -428,15 +446,24 @@
     <t>Apl. biologie prokaryot. a eukaryot. m.</t>
   </si>
   <si>
+    <t>Data Analysis and Visualisation</t>
+  </si>
+  <si>
+    <t>Algoritmizace a programování II</t>
+  </si>
+  <si>
+    <t>Algoritmizace a programování I</t>
+  </si>
+  <si>
+    <t>Machine Learning Based on R Software</t>
+  </si>
+  <si>
+    <t>Data Mining Techniq. based on R Software</t>
+  </si>
+  <si>
     <t>Python and R for Data Science</t>
   </si>
   <si>
-    <t>Algoritmizace a programování I</t>
-  </si>
-  <si>
-    <t>Algoritmizace a programování II</t>
-  </si>
-  <si>
     <t>Pravděpodobnost a statistika I</t>
   </si>
   <si>
@@ -473,49 +500,91 @@
     <t>N028</t>
   </si>
   <si>
+    <t>M200</t>
+  </si>
+  <si>
     <t>PB502</t>
   </si>
   <si>
+    <t>N016</t>
+  </si>
+  <si>
     <t>KB502</t>
   </si>
   <si>
-    <t>N016</t>
-  </si>
-  <si>
-    <t>M200</t>
+    <t>P732</t>
+  </si>
+  <si>
+    <t>KA35</t>
+  </si>
+  <si>
+    <t>K622</t>
+  </si>
+  <si>
+    <t>PA31</t>
+  </si>
+  <si>
+    <t>P622</t>
   </si>
   <si>
     <t>P736</t>
   </si>
   <si>
-    <t>PA31</t>
+    <t>P841</t>
   </si>
   <si>
     <t>K521</t>
   </si>
   <si>
-    <t>KA35</t>
-  </si>
-  <si>
-    <t>K622</t>
-  </si>
-  <si>
-    <t>P622</t>
-  </si>
-  <si>
-    <t>P732</t>
-  </si>
-  <si>
-    <t>P841</t>
+    <t>K414</t>
+  </si>
+  <si>
+    <t>P365</t>
   </si>
   <si>
     <t>K505</t>
   </si>
   <si>
-    <t>P365</t>
-  </si>
-  <si>
-    <t>K414</t>
+    <t>KKM</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>TEP</t>
+  </si>
+  <si>
+    <t>P737</t>
+  </si>
+  <si>
+    <t>K422</t>
+  </si>
+  <si>
+    <t>P938</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>P602</t>
+  </si>
+  <si>
+    <t>PD203</t>
+  </si>
+  <si>
+    <t>K724</t>
+  </si>
+  <si>
+    <t>KSPM</t>
+  </si>
+  <si>
+    <t>P427</t>
+  </si>
+  <si>
+    <t>P607</t>
+  </si>
+  <si>
+    <t>K222</t>
   </si>
   <si>
     <t>P508</t>
@@ -524,99 +593,60 @@
     <t>P509</t>
   </si>
   <si>
+    <t>P952</t>
+  </si>
+  <si>
+    <t>K512</t>
+  </si>
+  <si>
+    <t>PA52</t>
+  </si>
+  <si>
+    <t>K602</t>
+  </si>
+  <si>
+    <t>K522</t>
+  </si>
+  <si>
     <t>P531</t>
   </si>
   <si>
-    <t>P607</t>
-  </si>
-  <si>
-    <t>SPM</t>
-  </si>
-  <si>
-    <t>K512</t>
-  </si>
-  <si>
-    <t>K724</t>
-  </si>
-  <si>
-    <t>P952</t>
-  </si>
-  <si>
-    <t>PA52</t>
-  </si>
-  <si>
-    <t>P737</t>
-  </si>
-  <si>
-    <t>K222</t>
-  </si>
-  <si>
-    <t>P427</t>
-  </si>
-  <si>
-    <t>K422</t>
-  </si>
-  <si>
-    <t>K602</t>
-  </si>
-  <si>
-    <t>PD203</t>
-  </si>
-  <si>
-    <t>K522</t>
-  </si>
-  <si>
-    <t>P602</t>
-  </si>
-  <si>
-    <t>TEP</t>
-  </si>
-  <si>
-    <t>P938</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>KKM</t>
-  </si>
-  <si>
-    <t>KSPM</t>
-  </si>
-  <si>
     <t>M409</t>
   </si>
   <si>
     <t>M214</t>
   </si>
   <si>
+    <t>0101</t>
+  </si>
+  <si>
     <t>N304</t>
   </si>
   <si>
+    <t>KN22</t>
+  </si>
+  <si>
     <t>KN16</t>
   </si>
   <si>
-    <t>KN22</t>
-  </si>
-  <si>
     <t>0175</t>
   </si>
   <si>
+    <t>0218</t>
+  </si>
+  <si>
+    <t>0214</t>
+  </si>
+  <si>
+    <t>0237</t>
+  </si>
+  <si>
+    <t>0212</t>
+  </si>
+  <si>
     <t>0211</t>
   </si>
   <si>
-    <t>0214</t>
-  </si>
-  <si>
-    <t>0212</t>
-  </si>
-  <si>
-    <t>0237</t>
-  </si>
-  <si>
-    <t>0218</t>
-  </si>
-  <si>
     <t>0207</t>
   </si>
   <si>
@@ -626,36 +656,39 @@
     <t>P422</t>
   </si>
   <si>
+    <t>K305</t>
+  </si>
+  <si>
+    <t>P401</t>
+  </si>
+  <si>
+    <t>P103</t>
+  </si>
+  <si>
+    <t>P203</t>
+  </si>
+  <si>
+    <t>K206</t>
+  </si>
+  <si>
+    <t>K103</t>
+  </si>
+  <si>
     <t>P206</t>
   </si>
   <si>
-    <t>K103</t>
-  </si>
-  <si>
-    <t>P103</t>
+    <t>K406</t>
+  </si>
+  <si>
+    <t>0204</t>
   </si>
   <si>
     <t>K107</t>
   </si>
   <si>
-    <t>K206</t>
-  </si>
-  <si>
-    <t>P203</t>
-  </si>
-  <si>
-    <t>0204</t>
-  </si>
-  <si>
     <t>P406</t>
   </si>
   <si>
-    <t>P401</t>
-  </si>
-  <si>
-    <t>K406</t>
-  </si>
-  <si>
     <t>N111</t>
   </si>
   <si>
@@ -665,37 +698,40 @@
     <t>0109</t>
   </si>
   <si>
+    <t>ZFIN</t>
+  </si>
+  <si>
     <t>FINA</t>
   </si>
   <si>
-    <t>ZFIN</t>
-  </si>
-  <si>
     <t>K516</t>
   </si>
   <si>
     <t>K409</t>
   </si>
   <si>
+    <t>BP423</t>
+  </si>
+  <si>
+    <t>N032</t>
+  </si>
+  <si>
+    <t>K110</t>
+  </si>
+  <si>
+    <t>BK423</t>
+  </si>
+  <si>
     <t>N051</t>
   </si>
   <si>
     <t>P303</t>
   </si>
   <si>
-    <t>K110</t>
-  </si>
-  <si>
-    <t>N032</t>
-  </si>
-  <si>
     <t>P323</t>
   </si>
   <si>
-    <t>BK423</t>
-  </si>
-  <si>
-    <t>BP423</t>
+    <t>PD202</t>
   </si>
   <si>
     <t>AP05</t>
@@ -704,36 +740,36 @@
     <t>AP03</t>
   </si>
   <si>
-    <t>PD202</t>
+    <t>N023</t>
   </si>
   <si>
     <t>ME200</t>
   </si>
   <si>
-    <t>N023</t>
+    <t>P420</t>
+  </si>
+  <si>
+    <t>K507</t>
+  </si>
+  <si>
+    <t>P525</t>
+  </si>
+  <si>
+    <t>P528</t>
+  </si>
+  <si>
+    <t>K311</t>
+  </si>
+  <si>
+    <t>BK108</t>
+  </si>
+  <si>
+    <t>P328</t>
   </si>
   <si>
     <t>N036</t>
   </si>
   <si>
-    <t>P420</t>
-  </si>
-  <si>
-    <t>P525</t>
-  </si>
-  <si>
-    <t>BK108</t>
-  </si>
-  <si>
-    <t>K311</t>
-  </si>
-  <si>
-    <t>P528</t>
-  </si>
-  <si>
-    <t>P328</t>
-  </si>
-  <si>
     <t>M105</t>
   </si>
   <si>
@@ -743,6 +779,9 @@
     <t>E121</t>
   </si>
   <si>
+    <t>E120</t>
+  </si>
+  <si>
     <t>N021</t>
   </si>
   <si>
@@ -752,6 +791,9 @@
     <t>0116</t>
   </si>
   <si>
+    <t>PD107</t>
+  </si>
+  <si>
     <t>0126</t>
   </si>
   <si>
@@ -803,30 +845,30 @@
     <t>K106</t>
   </si>
   <si>
+    <t>P112</t>
+  </si>
+  <si>
     <t>P106</t>
   </si>
   <si>
-    <t>P112</t>
-  </si>
-  <si>
     <t>0150</t>
   </si>
   <si>
+    <t>N029</t>
+  </si>
+  <si>
+    <t>P527</t>
+  </si>
+  <si>
+    <t>P532</t>
+  </si>
+  <si>
     <t>K502</t>
   </si>
   <si>
-    <t>N029</t>
-  </si>
-  <si>
     <t>P506</t>
   </si>
   <si>
-    <t>P532</t>
-  </si>
-  <si>
-    <t>P527</t>
-  </si>
-  <si>
     <t>P517</t>
   </si>
   <si>
@@ -848,10 +890,13 @@
     <t>0177</t>
   </si>
   <si>
+    <t>0171</t>
+  </si>
+  <si>
     <t>0164</t>
   </si>
   <si>
-    <t>0171</t>
+    <t>PD101</t>
   </si>
   <si>
     <t>AUC</t>
@@ -872,34 +917,37 @@
     <t>P861</t>
   </si>
   <si>
+    <t>BK401</t>
+  </si>
+  <si>
+    <t>B401</t>
+  </si>
+  <si>
+    <t>M101</t>
+  </si>
+  <si>
     <t>M203</t>
   </si>
   <si>
+    <t>E403</t>
+  </si>
+  <si>
     <t>M312</t>
   </si>
   <si>
-    <t>BK401</t>
-  </si>
-  <si>
-    <t>B401</t>
-  </si>
-  <si>
-    <t>M101</t>
-  </si>
-  <si>
-    <t>E403</t>
+    <t>PB427</t>
   </si>
   <si>
     <t>KB427</t>
   </si>
   <si>
+    <t>MA205</t>
+  </si>
+  <si>
     <t>N060</t>
   </si>
   <si>
-    <t>PB427</t>
-  </si>
-  <si>
-    <t>MA205</t>
+    <t>M317</t>
   </si>
   <si>
     <t>0156</t>
@@ -920,24 +968,24 @@
     <t>PD55</t>
   </si>
   <si>
+    <t>P108</t>
+  </si>
+  <si>
+    <t>P707A</t>
+  </si>
+  <si>
+    <t>P705</t>
+  </si>
+  <si>
+    <t>DOUC</t>
+  </si>
+  <si>
+    <t>P208</t>
+  </si>
+  <si>
     <t>P707B</t>
   </si>
   <si>
-    <t>P208</t>
-  </si>
-  <si>
-    <t>P108</t>
-  </si>
-  <si>
-    <t>P705</t>
-  </si>
-  <si>
-    <t>DOUC</t>
-  </si>
-  <si>
-    <t>P707A</t>
-  </si>
-  <si>
     <t>PD12</t>
   </si>
   <si>
@@ -947,13 +995,22 @@
     <t>ME301</t>
   </si>
   <si>
+    <t>EDAV</t>
+  </si>
+  <si>
+    <t>APR2</t>
+  </si>
+  <si>
+    <t>APR1</t>
+  </si>
+  <si>
+    <t>EMLR</t>
+  </si>
+  <si>
+    <t>EDMR</t>
+  </si>
+  <si>
     <t>EPYR</t>
-  </si>
-  <si>
-    <t>APR1</t>
-  </si>
-  <si>
-    <t>APR2</t>
   </si>
   <si>
     <t>K413</t>
@@ -1030,8 +1087,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:C195" totalsRowShown="0">
-  <autoFilter ref="A1:C195"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:C206" totalsRowShown="0">
+  <autoFilter ref="A1:C206"/>
   <tableColumns count="3">
     <tableColumn id="1" name="nazev" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -1326,7 +1383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C195"/>
+  <dimension ref="A1:C206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1348,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C2" s="2">
         <v>69</v>
@@ -1359,7 +1416,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C3" s="2">
         <v>69</v>
@@ -1370,7 +1427,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C4" s="2">
         <v>130</v>
@@ -1381,7 +1438,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C5" s="2">
         <v>130</v>
@@ -1392,7 +1449,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C6" s="2">
         <v>269</v>
@@ -1403,7 +1460,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C7" s="2">
         <v>269</v>
@@ -1414,7 +1471,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C8" s="2">
         <v>281</v>
@@ -1422,10 +1479,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C9" s="2">
         <v>281</v>
@@ -1436,7 +1493,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C10" s="2">
         <v>281</v>
@@ -1447,7 +1504,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C11" s="2">
         <v>281</v>
@@ -1455,10 +1512,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C12" s="2">
         <v>281</v>
@@ -1469,7 +1526,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2">
         <v>302</v>
@@ -1480,7 +1537,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2">
         <v>302</v>
@@ -1491,7 +1548,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2">
         <v>302</v>
@@ -1502,7 +1559,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C16" s="2">
         <v>302</v>
@@ -1513,7 +1570,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C17" s="2">
         <v>302</v>
@@ -1524,7 +1581,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C18" s="2">
         <v>302</v>
@@ -1535,7 +1592,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C19" s="2">
         <v>302</v>
@@ -1546,7 +1603,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C20" s="2">
         <v>302</v>
@@ -1557,7 +1614,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C21" s="2">
         <v>306</v>
@@ -1568,7 +1625,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C22" s="2">
         <v>306</v>
@@ -1579,7 +1636,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C23" s="2">
         <v>306</v>
@@ -1590,7 +1647,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C24" s="2">
         <v>307</v>
@@ -1598,10 +1655,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C25" s="2">
         <v>307</v>
@@ -1609,10 +1666,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C26" s="2">
         <v>307</v>
@@ -1620,10 +1677,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C27" s="2">
         <v>307</v>
@@ -1631,10 +1688,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C28" s="2">
         <v>307</v>
@@ -1642,10 +1699,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C29" s="2">
         <v>307</v>
@@ -1656,7 +1713,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C30" s="2">
         <v>307</v>
@@ -1667,7 +1724,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C31" s="2">
         <v>307</v>
@@ -1678,7 +1735,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C32" s="2">
         <v>307</v>
@@ -1686,10 +1743,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C33" s="2">
         <v>307</v>
@@ -1697,10 +1754,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C34" s="2">
         <v>307</v>
@@ -1708,10 +1765,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C35" s="2">
         <v>307</v>
@@ -1719,10 +1776,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C36" s="2">
         <v>307</v>
@@ -1730,10 +1787,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C37" s="2">
         <v>307</v>
@@ -1741,10 +1798,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C38" s="2">
         <v>307</v>
@@ -1752,10 +1809,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C39" s="2">
         <v>307</v>
@@ -1763,10 +1820,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C40" s="2">
         <v>307</v>
@@ -1774,10 +1831,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C41" s="2">
         <v>307</v>
@@ -1785,10 +1842,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C42" s="2">
         <v>307</v>
@@ -1796,10 +1853,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C43" s="2">
         <v>307</v>
@@ -1807,10 +1864,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C44" s="2">
         <v>307</v>
@@ -1818,10 +1875,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C45" s="2">
         <v>307</v>
@@ -1832,7 +1889,7 @@
         <v>36</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C46" s="2">
         <v>313</v>
@@ -1843,7 +1900,7 @@
         <v>37</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C47" s="2">
         <v>313</v>
@@ -1854,10 +1911,10 @@
         <v>38</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C48" s="2">
-        <v>336</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1865,7 +1922,7 @@
         <v>39</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C49" s="2">
         <v>336</v>
@@ -1873,10 +1930,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C50" s="2">
         <v>336</v>
@@ -1887,10 +1944,10 @@
         <v>40</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C51" s="2">
-        <v>605</v>
+        <v>336</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1898,7 +1955,7 @@
         <v>41</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C52" s="2">
         <v>605</v>
@@ -1909,7 +1966,7 @@
         <v>42</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C53" s="2">
         <v>605</v>
@@ -1920,7 +1977,7 @@
         <v>43</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C54" s="2">
         <v>605</v>
@@ -1931,7 +1988,7 @@
         <v>44</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C55" s="2">
         <v>605</v>
@@ -1942,7 +1999,7 @@
         <v>45</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C56" s="2">
         <v>605</v>
@@ -1953,7 +2010,7 @@
         <v>46</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C57" s="2">
         <v>605</v>
@@ -1964,18 +2021,18 @@
         <v>47</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C58" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C59" s="2">
         <v>606</v>
@@ -1983,13 +2040,13 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C60" s="2">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1997,18 +2054,18 @@
         <v>49</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C61" s="2">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C62" s="2">
         <v>612</v>
@@ -2016,10 +2073,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C63" s="2">
         <v>612</v>
@@ -2027,10 +2084,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C64" s="2">
         <v>612</v>
@@ -2038,10 +2095,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C65" s="2">
         <v>612</v>
@@ -2049,10 +2106,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C66" s="2">
         <v>612</v>
@@ -2063,7 +2120,7 @@
         <v>53</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C67" s="2">
         <v>612</v>
@@ -2074,7 +2131,7 @@
         <v>54</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C68" s="2">
         <v>612</v>
@@ -2082,10 +2139,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C69" s="2">
         <v>612</v>
@@ -2093,24 +2150,24 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C70" s="2">
-        <v>719</v>
+        <v>612</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C71" s="2">
-        <v>816</v>
+        <v>612</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2118,10 +2175,10 @@
         <v>57</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C72" s="2">
-        <v>827</v>
+        <v>719</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2129,10 +2186,10 @@
         <v>58</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C73" s="2">
-        <v>929</v>
+        <v>816</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2140,10 +2197,10 @@
         <v>59</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C74" s="2">
-        <v>929</v>
+        <v>827</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2151,43 +2208,43 @@
         <v>60</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="C75" s="2">
-        <v>1108</v>
+        <v>929</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C76" s="2">
-        <v>1383</v>
+        <v>929</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>218</v>
       </c>
       <c r="C77" s="2">
-        <v>1456</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C78" s="2">
-        <v>1537</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2195,10 +2252,10 @@
         <v>63</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C79" s="2">
-        <v>1546</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2206,10 +2263,10 @@
         <v>64</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C80" s="2">
-        <v>1546</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2217,7 +2274,7 @@
         <v>65</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C81" s="2">
         <v>1546</v>
@@ -2228,7 +2285,7 @@
         <v>66</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C82" s="2">
         <v>1546</v>
@@ -2239,7 +2296,7 @@
         <v>67</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C83" s="2">
         <v>1546</v>
@@ -2247,10 +2304,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C84" s="2">
         <v>1546</v>
@@ -2261,7 +2318,7 @@
         <v>68</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C85" s="2">
         <v>1546</v>
@@ -2269,32 +2326,32 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="C86" s="2">
-        <v>1590</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C87" s="2">
-        <v>1590</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C88" s="2">
         <v>1590</v>
@@ -2302,10 +2359,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C89" s="2">
         <v>1590</v>
@@ -2313,54 +2370,54 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C90" s="2">
-        <v>1986</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="C91" s="2">
-        <v>1986</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C92" s="2">
-        <v>1999</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C93" s="2">
-        <v>1999</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C94" s="2">
         <v>1999</v>
@@ -2368,10 +2425,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C95" s="2">
         <v>1999</v>
@@ -2379,10 +2436,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C96" s="2">
         <v>1999</v>
@@ -2390,10 +2447,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C97" s="2">
         <v>1999</v>
@@ -2401,10 +2458,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C98" s="2">
         <v>1999</v>
@@ -2412,35 +2469,35 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C99" s="2">
-        <v>2232</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C100" s="2">
-        <v>2232</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C101" s="2">
-        <v>2441</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2448,32 +2505,32 @@
         <v>78</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C102" s="2">
-        <v>2450</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C103" s="2">
-        <v>2591</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="C104" s="2">
-        <v>2757</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2481,10 +2538,10 @@
         <v>80</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C105" s="2">
-        <v>2758</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2492,10 +2549,10 @@
         <v>81</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C106" s="2">
-        <v>2812</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2503,109 +2560,109 @@
         <v>82</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C107" s="2">
-        <v>2812</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C108" s="2">
-        <v>2997</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="C109" s="2">
-        <v>2997</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="C110" s="2">
-        <v>3066</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C111" s="2">
-        <v>3175</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C112" s="2">
-        <v>3176</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C113" s="2">
-        <v>3176</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C114" s="2">
-        <v>3458</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C115" s="2">
-        <v>3796</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C116" s="2">
-        <v>3797</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2613,87 +2670,87 @@
         <v>89</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C117" s="2">
-        <v>3797</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C118" s="2">
-        <v>3797</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C119" s="2">
-        <v>3798</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C120" s="2">
-        <v>3798</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="C121" s="2">
-        <v>3798</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="C122" s="2">
-        <v>4175</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C123" s="2">
-        <v>4176</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C124" s="2">
-        <v>4177</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2701,150 +2758,150 @@
         <v>93</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C125" s="2">
-        <v>4190</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C126" s="2">
-        <v>4195</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>154</v>
+        <v>270</v>
       </c>
       <c r="C127" s="2">
-        <v>4208</v>
+        <v>4175</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>168</v>
+        <v>271</v>
       </c>
       <c r="C128" s="2">
-        <v>4221</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="C129" s="2">
-        <v>4221</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C130" s="2">
-        <v>4221</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="C131" s="2">
-        <v>4221</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>264</v>
+        <v>163</v>
       </c>
       <c r="C132" s="2">
-        <v>4227</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C133" s="2">
-        <v>4258</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C134" s="2">
-        <v>4258</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>267</v>
+        <v>191</v>
       </c>
       <c r="C135" s="2">
-        <v>4258</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C136" s="2">
-        <v>4258</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C137" s="2">
-        <v>4258</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C138" s="2">
         <v>4258</v>
@@ -2852,35 +2909,35 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C139" s="2">
-        <v>4302</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C140" s="2">
-        <v>4380</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C141" s="2">
-        <v>4390</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2888,21 +2945,21 @@
         <v>105</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C142" s="2">
-        <v>4581</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C143" s="2">
-        <v>4581</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2910,10 +2967,10 @@
         <v>106</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C144" s="2">
-        <v>4685</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2921,10 +2978,10 @@
         <v>107</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="C145" s="2">
-        <v>4746</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2932,21 +2989,21 @@
         <v>108</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C146" s="2">
-        <v>4746</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="C147" s="2">
-        <v>4757</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2954,10 +3011,10 @@
         <v>109</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C148" s="2">
-        <v>5039</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2965,10 +3022,10 @@
         <v>110</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C149" s="2">
-        <v>5062</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2976,10 +3033,10 @@
         <v>111</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C150" s="2">
-        <v>5131</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2987,109 +3044,109 @@
         <v>112</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="C151" s="2">
-        <v>5135</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C152" s="2">
-        <v>5201</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C153" s="2">
-        <v>5201</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C154" s="2">
-        <v>5240</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C155" s="2">
-        <v>5240</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C156" s="2">
-        <v>5240</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C157" s="2">
-        <v>5240</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="C158" s="2">
-        <v>5240</v>
+        <v>5201</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C159" s="2">
-        <v>5240</v>
+        <v>5201</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C160" s="2">
-        <v>5472</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3097,65 +3154,65 @@
         <v>118</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C161" s="2">
-        <v>5472</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C162" s="2">
-        <v>5472</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C163" s="2">
-        <v>5472</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="C164" s="2">
-        <v>5754</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>238</v>
+        <v>305</v>
       </c>
       <c r="C165" s="2">
-        <v>5854</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="C166" s="2">
-        <v>5924</v>
+        <v>5472</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3163,98 +3220,98 @@
         <v>122</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="C167" s="2">
-        <v>5927</v>
+        <v>5472</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>217</v>
+        <v>308</v>
       </c>
       <c r="C168" s="2">
-        <v>6120</v>
+        <v>5472</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C169" s="2">
-        <v>6886</v>
+        <v>5472</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C170" s="2">
-        <v>6886</v>
+        <v>5754</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="C171" s="2">
-        <v>7307</v>
+        <v>5854</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C172" s="2">
-        <v>7416</v>
+        <v>5886</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="C173" s="2">
-        <v>7805</v>
+        <v>5924</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="C174" s="2">
-        <v>8021</v>
+        <v>5927</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>302</v>
+        <v>227</v>
       </c>
       <c r="C175" s="2">
-        <v>8021</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3262,208 +3319,208 @@
         <v>129</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="C176" s="2">
-        <v>8021</v>
+        <v>6886</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C177" s="2">
-        <v>8021</v>
+        <v>6886</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="C178" s="2">
-        <v>8021</v>
+        <v>7307</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C179" s="2">
-        <v>8021</v>
+        <v>7416</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C180" s="2">
-        <v>8074</v>
+        <v>7805</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C181" s="2">
-        <v>8075</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="C182" s="2">
-        <v>8154</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C183" s="2">
-        <v>8154</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>186</v>
+        <v>320</v>
       </c>
       <c r="C184" s="2">
-        <v>8310</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>187</v>
+        <v>321</v>
       </c>
       <c r="C185" s="2">
-        <v>8310</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="C186" s="2">
-        <v>8514</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="C187" s="2">
-        <v>8514</v>
+        <v>8074</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="C188" s="2">
-        <v>8514</v>
+        <v>8075</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>205</v>
+        <v>302</v>
       </c>
       <c r="C189" s="2">
-        <v>8677</v>
+        <v>8154</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="C190" s="2">
-        <v>8677</v>
+        <v>8154</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>314</v>
+        <v>176</v>
       </c>
       <c r="C191" s="2">
-        <v>8677</v>
+        <v>8310</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>315</v>
+        <v>177</v>
       </c>
       <c r="C192" s="2">
-        <v>8749</v>
+        <v>8310</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>172</v>
+        <v>254</v>
       </c>
       <c r="C193" s="2">
-        <v>8750</v>
+        <v>8316</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="C194" s="2">
-        <v>8753</v>
+        <v>8514</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3471,9 +3528,130 @@
         <v>144</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C195" s="2">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C196" s="2">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C197" s="2">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C198" s="2">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C199" s="2">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C200" s="2">
+        <v>8677</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C201" s="2">
+        <v>8677</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C202" s="2">
+        <v>8677</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C203" s="2">
+        <v>8749</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C204" s="2">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C205" s="2">
+        <v>8753</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C206" s="2">
         <v>8753</v>
       </c>
     </row>

--- a/results/cvicici_bez_cviceni.xlsx
+++ b/results/cvicici_bez_cviceni.xlsx
@@ -40,27 +40,27 @@
     <t>Information Security</t>
   </si>
   <si>
+    <t>Mikroprocesory a senzory v praxi I</t>
+  </si>
+  <si>
     <t>Mikroprocesory a senzory v praxi II</t>
   </si>
   <si>
-    <t>Mikroprocesory a senzory v praxi I</t>
-  </si>
-  <si>
     <t>Automatické řízení</t>
   </si>
   <si>
     <t>Analogová elektronika</t>
   </si>
   <si>
+    <t>Algoritmizace a programování I</t>
+  </si>
+  <si>
     <t>Python and R for Data Science</t>
   </si>
   <si>
     <t>Algoritmizace a programování II</t>
   </si>
   <si>
-    <t>Algoritmizace a programování I</t>
-  </si>
-  <si>
     <t>Objektově orientované návrhové vzory</t>
   </si>
   <si>
@@ -79,37 +79,37 @@
     <t>0177</t>
   </si>
   <si>
+    <t>0164</t>
+  </si>
+  <si>
     <t>0171</t>
   </si>
   <si>
-    <t>0164</t>
-  </si>
-  <si>
     <t>AUC</t>
   </si>
   <si>
+    <t>KAEL</t>
+  </si>
+  <si>
     <t>ANE</t>
   </si>
   <si>
-    <t>KAEL</t>
-  </si>
-  <si>
     <t>KANE</t>
   </si>
   <si>
+    <t>APR1</t>
+  </si>
+  <si>
     <t>EPYR</t>
   </si>
   <si>
     <t>APR2</t>
   </si>
   <si>
-    <t>APR1</t>
+    <t>KOONV</t>
   </si>
   <si>
     <t>OONV</t>
-  </si>
-  <si>
-    <t>KOONV</t>
   </si>
 </sst>
 </file>

--- a/results/cvicici_bez_cviceni.xlsx
+++ b/results/cvicici_bez_cviceni.xlsx
@@ -25,49 +25,52 @@
     <t>cviciciUcitIdno</t>
   </si>
   <si>
+    <t>Základy počítačové fyziky</t>
+  </si>
+  <si>
     <t>Fyzika pevných látek I</t>
   </si>
   <si>
-    <t>Základy počítačové fyziky</t>
-  </si>
-  <si>
     <t>Demografie</t>
   </si>
   <si>
     <t>Geometrie</t>
   </si>
   <si>
+    <t>Fyziologie a mol. bio. eukar. buňky I</t>
+  </si>
+  <si>
     <t>Diplomová práce I</t>
   </si>
   <si>
     <t>Fyziologie živočichů a člověka</t>
   </si>
   <si>
-    <t>Fyziologie a mol. bio. eukar. buňky I</t>
+    <t>Fyzikální praktikum C</t>
+  </si>
+  <si>
+    <t>Exkurze</t>
+  </si>
+  <si>
+    <t>Souvislá pedagogická praxe II - ZŠ</t>
+  </si>
+  <si>
+    <t>Proseminář řešení fyzikálních úloh</t>
+  </si>
+  <si>
+    <t>Proseminář řešení fyzikálních úloh A</t>
+  </si>
+  <si>
+    <t>Didaktická a laboratorní technika</t>
+  </si>
+  <si>
+    <t>Proseminář řešení fyzikálních úloh A ZŠ</t>
   </si>
   <si>
     <t>Průběžná pedagogická praxe ZŠ</t>
   </si>
   <si>
-    <t>Souvislá pedagogická praxe II - ZŠ</t>
-  </si>
-  <si>
-    <t>Proseminář řešení fyzikálních úloh</t>
-  </si>
-  <si>
-    <t>Didaktická a laboratorní technika</t>
-  </si>
-  <si>
-    <t>Proseminář řešení fyzikálních úloh A</t>
-  </si>
-  <si>
-    <t>Proseminář řešení fyzikálních úloh A ZŠ</t>
-  </si>
-  <si>
-    <t>Exkurze</t>
-  </si>
-  <si>
-    <t>Fyzikální praktikum C</t>
+    <t>Diplomový seminář</t>
   </si>
   <si>
     <t>Vybrané partie z fyziky</t>
@@ -76,54 +79,51 @@
     <t>Matematický proseminář</t>
   </si>
   <si>
-    <t>Diplomový seminář</t>
+    <t>Teorie elektromagnetického pole</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky I</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika</t>
+  </si>
+  <si>
+    <t>Seminář katedry I</t>
+  </si>
+  <si>
+    <t>Seminář katedry</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teorie elektromag. pole</t>
+  </si>
+  <si>
+    <t>Seminář katedry II</t>
   </si>
   <si>
     <t>Kvantová mechanika</t>
   </si>
   <si>
-    <t>Teorie elektromagnetického pole</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky I</t>
+    <t>Odborný seminář katedry A</t>
+  </si>
+  <si>
+    <t>Souhrnný seminář - počítačové modelování</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky II</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika II</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika I</t>
+  </si>
+  <si>
+    <t>Fyzika I</t>
   </si>
   <si>
     <t>Vybrané partie z teoretické fyziky I</t>
   </si>
   <si>
-    <t>Souhrnný seminář - počítačové modelování</t>
-  </si>
-  <si>
-    <t>Seminář katedry</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teorie elektromag. pole</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika II</t>
-  </si>
-  <si>
-    <t>Fyzika I</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika I</t>
-  </si>
-  <si>
-    <t>Seminář katedry I</t>
-  </si>
-  <si>
-    <t>Seminář katedry II</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky II</t>
-  </si>
-  <si>
-    <t>Odborný seminář katedry A</t>
-  </si>
-  <si>
     <t>Metody geografického výzkumu krajiny</t>
   </si>
   <si>
@@ -139,24 +139,24 @@
     <t>Dějiny chemie</t>
   </si>
   <si>
+    <t>Experimentální využití elmg. vln F</t>
+  </si>
+  <si>
     <t>VK-Programování ATMEL I</t>
   </si>
   <si>
     <t>Experimentální využití elmg. vln B</t>
   </si>
   <si>
+    <t>VK- Praktikum mikrovlnné techniky D</t>
+  </si>
+  <si>
+    <t>Vybrané matematické metody ve fyzice</t>
+  </si>
+  <si>
     <t>Řešení obvodu RLC</t>
   </si>
   <si>
-    <t>Experimentální využití elmg. vln F</t>
-  </si>
-  <si>
-    <t>Vybrané matematické metody ve fyzice</t>
-  </si>
-  <si>
-    <t>VK- Praktikum mikrovlnné techniky D</t>
-  </si>
-  <si>
     <t>Praktikum mikrovlnné techniky - aplikace</t>
   </si>
   <si>
@@ -166,27 +166,27 @@
     <t>Teoretická mechanika I</t>
   </si>
   <si>
+    <t>PVK - Hromadné zpracování dat</t>
+  </si>
+  <si>
+    <t>Počítačové modelování I</t>
+  </si>
+  <si>
+    <t>Počítačové modelování II</t>
+  </si>
+  <si>
+    <t>VK-Fyzikální seminář</t>
+  </si>
+  <si>
+    <t>Programování B</t>
+  </si>
+  <si>
+    <t>Programování A</t>
+  </si>
+  <si>
     <t>Počítačové modelování III</t>
   </si>
   <si>
-    <t>Programování A</t>
-  </si>
-  <si>
-    <t>Programování B</t>
-  </si>
-  <si>
-    <t>Počítačové modelování II</t>
-  </si>
-  <si>
-    <t>PVK - Hromadné zpracování dat</t>
-  </si>
-  <si>
-    <t>VK-Fyzikální seminář</t>
-  </si>
-  <si>
-    <t>Počítačové modelování I</t>
-  </si>
-  <si>
     <t>Systém kvality a vyhodnocování dat</t>
   </si>
   <si>
@@ -196,12 +196,12 @@
     <t>VK - Exkurze z regionální geologie</t>
   </si>
   <si>
+    <t>Finanční analýza</t>
+  </si>
+  <si>
     <t>Základy financí</t>
   </si>
   <si>
-    <t>Finanční analýza</t>
-  </si>
-  <si>
     <t>Základy matematiky</t>
   </si>
   <si>
@@ -211,46 +211,46 @@
     <t>Matematika IV</t>
   </si>
   <si>
+    <t>Ekofyziologie</t>
+  </si>
+  <si>
+    <t>Biologie a ekologie člověka I</t>
+  </si>
+  <si>
     <t>Somatologie</t>
   </si>
   <si>
+    <t>Obecná parazitologie</t>
+  </si>
+  <si>
     <t>Biologie parazitů</t>
   </si>
   <si>
     <t>Obecná zoologie</t>
-  </si>
-  <si>
-    <t>Ekofyziologie</t>
-  </si>
-  <si>
-    <t>Biologie a ekologie člověka I</t>
-  </si>
-  <si>
-    <t>Obecná parazitologie</t>
-  </si>
-  <si>
-    <t>Komplexní analýza materiálů</t>
-  </si>
-  <si>
-    <t>Metody analýz materiálů</t>
   </si>
   <si>
     <t>Met. analýz mat. 
 využ. el. mikroskopie</t>
   </si>
   <si>
+    <t>Komplexní analýza materiálů</t>
+  </si>
+  <si>
+    <t>Metody analýz materiálů</t>
+  </si>
+  <si>
     <t>Metody molekulární biologie</t>
   </si>
   <si>
+    <t>Environmentální legislativa</t>
+  </si>
+  <si>
+    <t>Limnobiologie</t>
+  </si>
+  <si>
     <t>Algologie</t>
   </si>
   <si>
-    <t>Environmentální legislativa</t>
-  </si>
-  <si>
-    <t>Limnobiologie</t>
-  </si>
-  <si>
     <t>Didaktika geografie I</t>
   </si>
   <si>
@@ -314,27 +314,27 @@
     <t>Počítačové sítě a protokoly</t>
   </si>
   <si>
+    <t>Úvod do fyziky</t>
+  </si>
+  <si>
     <t>Matematika I</t>
   </si>
   <si>
-    <t>Úvod do fyziky</t>
-  </si>
-  <si>
     <t>Neziskový sektor a regionální rozvoj</t>
   </si>
   <si>
+    <t>Fyzikálně chemická cvičení</t>
+  </si>
+  <si>
+    <t>Laboratorní cvičení z fyzikální chemie</t>
+  </si>
+  <si>
+    <t>PVK - Fyzikálně chemická cvičení A</t>
+  </si>
+  <si>
     <t>Moderní elektroanal. met. - prakt. kurz</t>
   </si>
   <si>
-    <t>Fyzikálně chemická cvičení</t>
-  </si>
-  <si>
-    <t>Laboratorní cvičení z fyzikální chemie</t>
-  </si>
-  <si>
-    <t>PVK - Fyzikálně chemická cvičení A</t>
-  </si>
-  <si>
     <t>Vybrané kapitoly z geografie krajiny</t>
   </si>
   <si>
@@ -350,12 +350,12 @@
     <t>Information Security</t>
   </si>
   <si>
+    <t>Mikroprocesory a senzory v praxi I</t>
+  </si>
+  <si>
     <t>Mikroprocesory a senzory v praxi II</t>
   </si>
   <si>
-    <t>Mikroprocesory a senzory v praxi I</t>
-  </si>
-  <si>
     <t>Scientific inquiry and reasoning</t>
   </si>
   <si>
@@ -371,27 +371,27 @@
     <t>Praktikum validace analytických metod</t>
   </si>
   <si>
+    <t>Lokální a regionální rozvoj</t>
+  </si>
+  <si>
     <t>Životní prostředí a udržitelný rozvoj</t>
   </si>
   <si>
-    <t>Lokální a regionální rozvoj</t>
+    <t>Terénní cvičení ze SG</t>
   </si>
   <si>
     <t>English for Science</t>
   </si>
   <si>
-    <t>Terénní cvičení ze SG</t>
-  </si>
-  <si>
     <t>Zoologické terénní cvičení</t>
   </si>
   <si>
+    <t>Srovnávací anatom. a morfol. obratlovců</t>
+  </si>
+  <si>
     <t>Ornitologie</t>
   </si>
   <si>
-    <t>Srovnávací anatom. a morfol. obratlovců</t>
-  </si>
-  <si>
     <t>Biomedicínské mat.- přípr., char., a vl.</t>
   </si>
   <si>
@@ -416,54 +416,54 @@
     <t>Přípr. a využití nanovlákenných struktur</t>
   </si>
   <si>
+    <t>Průběžná pedagogická praxe</t>
+  </si>
+  <si>
+    <t>Didaktika biologie II</t>
+  </si>
+  <si>
+    <t>Souvislá pedagogická praxe II - SŠ</t>
+  </si>
+  <si>
     <t>Didaktika biologie I</t>
   </si>
   <si>
     <t>Souvislá pedagogická praxe I - SŠ</t>
   </si>
   <si>
-    <t>Průběžná pedagogická praxe</t>
-  </si>
-  <si>
     <t>Doučování</t>
   </si>
   <si>
-    <t>Didaktika biologie II</t>
-  </si>
-  <si>
-    <t>Souvislá pedagogická praxe II - SŠ</t>
-  </si>
-  <si>
     <t>Kompozity nanočástic kovů a jejich oxidů</t>
   </si>
   <si>
     <t>Nanokompozitní materiály na bázi uhlíku</t>
   </si>
   <si>
+    <t>Apl. biologie prokaryot. a eukaryot. m.</t>
+  </si>
+  <si>
     <t>Biologie půdních mikroorganismů</t>
   </si>
   <si>
-    <t>Apl. biologie prokaryot. a eukaryot. m.</t>
+    <t>Data Mining Techniq. based on R Software</t>
+  </si>
+  <si>
+    <t>Algoritmizace a programování I</t>
+  </si>
+  <si>
+    <t>Python and R for Data Science</t>
   </si>
   <si>
     <t>Data Analysis and Visualisation</t>
   </si>
   <si>
+    <t>Machine Learning Based on R Software</t>
+  </si>
+  <si>
     <t>Algoritmizace a programování II</t>
   </si>
   <si>
-    <t>Algoritmizace a programování I</t>
-  </si>
-  <si>
-    <t>Machine Learning Based on R Software</t>
-  </si>
-  <si>
-    <t>Data Mining Techniq. based on R Software</t>
-  </si>
-  <si>
-    <t>Python and R for Data Science</t>
-  </si>
-  <si>
     <t>Pravděpodobnost a statistika I</t>
   </si>
   <si>
@@ -479,61 +479,64 @@
     <t>Objektově orientované návrhové vzory</t>
   </si>
   <si>
+    <t>K503</t>
+  </si>
+  <si>
     <t>K839</t>
   </si>
   <si>
-    <t>K503</t>
-  </si>
-  <si>
     <t>FDEMO</t>
   </si>
   <si>
     <t>5DEMO</t>
   </si>
   <si>
+    <t>P335</t>
+  </si>
+  <si>
     <t>K312</t>
   </si>
   <si>
-    <t>P335</t>
+    <t>N016</t>
+  </si>
+  <si>
+    <t>M200</t>
+  </si>
+  <si>
+    <t>PB502</t>
   </si>
   <si>
     <t>N028</t>
   </si>
   <si>
-    <t>M200</t>
-  </si>
-  <si>
-    <t>PB502</t>
-  </si>
-  <si>
-    <t>N016</t>
-  </si>
-  <si>
     <t>KB502</t>
   </si>
   <si>
+    <t>K521</t>
+  </si>
+  <si>
+    <t>P841</t>
+  </si>
+  <si>
+    <t>KA35</t>
+  </si>
+  <si>
+    <t>K622</t>
+  </si>
+  <si>
+    <t>P622</t>
+  </si>
+  <si>
+    <t>PA31</t>
+  </si>
+  <si>
+    <t>P736</t>
+  </si>
+  <si>
     <t>P732</t>
   </si>
   <si>
-    <t>KA35</t>
-  </si>
-  <si>
-    <t>K622</t>
-  </si>
-  <si>
-    <t>PA31</t>
-  </si>
-  <si>
-    <t>P622</t>
-  </si>
-  <si>
-    <t>P736</t>
-  </si>
-  <si>
-    <t>P841</t>
-  </si>
-  <si>
-    <t>K521</t>
+    <t>K505</t>
   </si>
   <si>
     <t>K414</t>
@@ -542,75 +545,72 @@
     <t>P365</t>
   </si>
   <si>
-    <t>K505</t>
+    <t>P508</t>
+  </si>
+  <si>
+    <t>K422</t>
+  </si>
+  <si>
+    <t>K724</t>
+  </si>
+  <si>
+    <t>P952</t>
+  </si>
+  <si>
+    <t>K602</t>
+  </si>
+  <si>
+    <t>P602</t>
+  </si>
+  <si>
+    <t>PD203</t>
+  </si>
+  <si>
+    <t>PA52</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>P531</t>
   </si>
   <si>
     <t>KKM</t>
   </si>
   <si>
-    <t>KM</t>
+    <t>KSPM</t>
+  </si>
+  <si>
+    <t>K522</t>
+  </si>
+  <si>
+    <t>P607</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>P509</t>
+  </si>
+  <si>
+    <t>K222</t>
   </si>
   <si>
     <t>TEP</t>
   </si>
   <si>
+    <t>P427</t>
+  </si>
+  <si>
     <t>P737</t>
   </si>
   <si>
-    <t>K422</t>
+    <t>K512</t>
   </si>
   <si>
     <t>P938</t>
   </si>
   <si>
-    <t>SPM</t>
-  </si>
-  <si>
-    <t>P602</t>
-  </si>
-  <si>
-    <t>PD203</t>
-  </si>
-  <si>
-    <t>K724</t>
-  </si>
-  <si>
-    <t>KSPM</t>
-  </si>
-  <si>
-    <t>P427</t>
-  </si>
-  <si>
-    <t>P607</t>
-  </si>
-  <si>
-    <t>K222</t>
-  </si>
-  <si>
-    <t>P508</t>
-  </si>
-  <si>
-    <t>P509</t>
-  </si>
-  <si>
-    <t>P952</t>
-  </si>
-  <si>
-    <t>K512</t>
-  </si>
-  <si>
-    <t>PA52</t>
-  </si>
-  <si>
-    <t>K602</t>
-  </si>
-  <si>
-    <t>K522</t>
-  </si>
-  <si>
-    <t>P531</t>
-  </si>
-  <si>
     <t>M409</t>
   </si>
   <si>
@@ -620,13 +620,16 @@
     <t>0101</t>
   </si>
   <si>
+    <t>KN22</t>
+  </si>
+  <si>
+    <t>KN16</t>
+  </si>
+  <si>
     <t>N304</t>
   </si>
   <si>
-    <t>KN22</t>
-  </si>
-  <si>
-    <t>KN16</t>
+    <t>0237</t>
   </si>
   <si>
     <t>0175</t>
@@ -635,60 +638,57 @@
     <t>0218</t>
   </si>
   <si>
+    <t>0211</t>
+  </si>
+  <si>
+    <t>0212</t>
+  </si>
+  <si>
     <t>0214</t>
   </si>
   <si>
-    <t>0237</t>
-  </si>
-  <si>
-    <t>0212</t>
-  </si>
-  <si>
-    <t>0211</t>
-  </si>
-  <si>
     <t>0207</t>
   </si>
   <si>
+    <t>P422</t>
+  </si>
+  <si>
     <t>P522</t>
   </si>
   <si>
-    <t>P422</t>
-  </si>
-  <si>
     <t>K305</t>
   </si>
   <si>
+    <t>P406</t>
+  </si>
+  <si>
+    <t>K107</t>
+  </si>
+  <si>
+    <t>K206</t>
+  </si>
+  <si>
+    <t>0204</t>
+  </si>
+  <si>
+    <t>K406</t>
+  </si>
+  <si>
+    <t>P203</t>
+  </si>
+  <si>
+    <t>K103</t>
+  </si>
+  <si>
     <t>P401</t>
   </si>
   <si>
+    <t>P206</t>
+  </si>
+  <si>
     <t>P103</t>
   </si>
   <si>
-    <t>P203</t>
-  </si>
-  <si>
-    <t>K206</t>
-  </si>
-  <si>
-    <t>K103</t>
-  </si>
-  <si>
-    <t>P206</t>
-  </si>
-  <si>
-    <t>K406</t>
-  </si>
-  <si>
-    <t>0204</t>
-  </si>
-  <si>
-    <t>K107</t>
-  </si>
-  <si>
-    <t>P406</t>
-  </si>
-  <si>
     <t>N111</t>
   </si>
   <si>
@@ -698,21 +698,30 @@
     <t>0109</t>
   </si>
   <si>
+    <t>FINA</t>
+  </si>
+  <si>
     <t>ZFIN</t>
   </si>
   <si>
-    <t>FINA</t>
-  </si>
-  <si>
     <t>K516</t>
   </si>
   <si>
     <t>K409</t>
   </si>
   <si>
+    <t>N051</t>
+  </si>
+  <si>
+    <t>P303</t>
+  </si>
+  <si>
     <t>BP423</t>
   </si>
   <si>
+    <t>P323</t>
+  </si>
+  <si>
     <t>N032</t>
   </si>
   <si>
@@ -722,13 +731,7 @@
     <t>BK423</t>
   </si>
   <si>
-    <t>N051</t>
-  </si>
-  <si>
-    <t>P303</t>
-  </si>
-  <si>
-    <t>P323</t>
+    <t>AP03</t>
   </si>
   <si>
     <t>PD202</t>
@@ -737,45 +740,42 @@
     <t>AP05</t>
   </si>
   <si>
-    <t>AP03</t>
-  </si>
-  <si>
     <t>N023</t>
   </si>
   <si>
     <t>ME200</t>
   </si>
   <si>
+    <t>P525</t>
+  </si>
+  <si>
+    <t>K311</t>
+  </si>
+  <si>
+    <t>P528</t>
+  </si>
+  <si>
+    <t>N036</t>
+  </si>
+  <si>
+    <t>K507</t>
+  </si>
+  <si>
     <t>P420</t>
   </si>
   <si>
-    <t>K507</t>
-  </si>
-  <si>
-    <t>P525</t>
-  </si>
-  <si>
-    <t>P528</t>
-  </si>
-  <si>
-    <t>K311</t>
-  </si>
-  <si>
     <t>BK108</t>
   </si>
   <si>
     <t>P328</t>
   </si>
   <si>
-    <t>N036</t>
+    <t>N001</t>
   </si>
   <si>
     <t>M105</t>
   </si>
   <si>
-    <t>N001</t>
-  </si>
-  <si>
     <t>E121</t>
   </si>
   <si>
@@ -818,15 +818,15 @@
     <t>E133</t>
   </si>
   <si>
+    <t>P416</t>
+  </si>
+  <si>
     <t>P419</t>
   </si>
   <si>
     <t>K403</t>
   </si>
   <si>
-    <t>P416</t>
-  </si>
-  <si>
     <t>0088</t>
   </si>
   <si>
@@ -842,36 +842,36 @@
     <t>PSP</t>
   </si>
   <si>
+    <t>P112</t>
+  </si>
+  <si>
     <t>K106</t>
   </si>
   <si>
-    <t>P112</t>
-  </si>
-  <si>
     <t>P106</t>
   </si>
   <si>
     <t>0150</t>
   </si>
   <si>
+    <t>P517</t>
+  </si>
+  <si>
+    <t>P532</t>
+  </si>
+  <si>
+    <t>K502</t>
+  </si>
+  <si>
+    <t>P527</t>
+  </si>
+  <si>
+    <t>P506</t>
+  </si>
+  <si>
     <t>N029</t>
   </si>
   <si>
-    <t>P527</t>
-  </si>
-  <si>
-    <t>P532</t>
-  </si>
-  <si>
-    <t>K502</t>
-  </si>
-  <si>
-    <t>P506</t>
-  </si>
-  <si>
-    <t>P517</t>
-  </si>
-  <si>
     <t>0152</t>
   </si>
   <si>
@@ -881,21 +881,21 @@
     <t>N049</t>
   </si>
   <si>
+    <t>N005</t>
+  </si>
+  <si>
     <t>KN46</t>
   </si>
   <si>
-    <t>N005</t>
-  </si>
-  <si>
     <t>0177</t>
   </si>
   <si>
+    <t>0164</t>
+  </si>
+  <si>
     <t>0171</t>
   </si>
   <si>
-    <t>0164</t>
-  </si>
-  <si>
     <t>PD101</t>
   </si>
   <si>
@@ -917,36 +917,36 @@
     <t>P861</t>
   </si>
   <si>
+    <t>M101</t>
+  </si>
+  <si>
     <t>BK401</t>
   </si>
   <si>
+    <t>M312</t>
+  </si>
+  <si>
     <t>B401</t>
   </si>
   <si>
-    <t>M101</t>
+    <t>E403</t>
   </si>
   <si>
     <t>M203</t>
   </si>
   <si>
-    <t>E403</t>
-  </si>
-  <si>
-    <t>M312</t>
-  </si>
-  <si>
     <t>PB427</t>
   </si>
   <si>
+    <t>N060</t>
+  </si>
+  <si>
     <t>KB427</t>
   </si>
   <si>
     <t>MA205</t>
   </si>
   <si>
-    <t>N060</t>
-  </si>
-  <si>
     <t>M317</t>
   </si>
   <si>
@@ -968,24 +968,24 @@
     <t>PD55</t>
   </si>
   <si>
+    <t>P705</t>
+  </si>
+  <si>
+    <t>P208</t>
+  </si>
+  <si>
+    <t>P707B</t>
+  </si>
+  <si>
     <t>P108</t>
   </si>
   <si>
     <t>P707A</t>
   </si>
   <si>
-    <t>P705</t>
-  </si>
-  <si>
     <t>DOUC</t>
   </si>
   <si>
-    <t>P208</t>
-  </si>
-  <si>
-    <t>P707B</t>
-  </si>
-  <si>
     <t>PD12</t>
   </si>
   <si>
@@ -995,24 +995,24 @@
     <t>ME301</t>
   </si>
   <si>
+    <t>EDMR</t>
+  </si>
+  <si>
+    <t>APR1</t>
+  </si>
+  <si>
+    <t>EPYR</t>
+  </si>
+  <si>
     <t>EDAV</t>
   </si>
   <si>
+    <t>EMLR</t>
+  </si>
+  <si>
     <t>APR2</t>
   </si>
   <si>
-    <t>APR1</t>
-  </si>
-  <si>
-    <t>EMLR</t>
-  </si>
-  <si>
-    <t>EDMR</t>
-  </si>
-  <si>
-    <t>EPYR</t>
-  </si>
-  <si>
     <t>K413</t>
   </si>
   <si>
@@ -1022,10 +1022,10 @@
     <t>PEK</t>
   </si>
   <si>
+    <t>OONV</t>
+  </si>
+  <si>
     <t>KOONV</t>
-  </si>
-  <si>
-    <t>OONV</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>161</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>162</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>163</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>164</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>177</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>178</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>179</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>180</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>185</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>186</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>187</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>188</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>189</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>190</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>191</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>192</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>193</v>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>194</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>195</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>196</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>202</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>203</v>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>211</v>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>212</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>218</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>219</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>220</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>221</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>222</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>223</v>
@@ -2230,7 +2230,7 @@
         <v>62</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C77" s="2">
         <v>1108</v>
@@ -2238,10 +2238,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C78" s="2">
         <v>1383</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>234</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>235</v>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>236</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>237</v>
@@ -2359,10 +2359,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="C89" s="2">
         <v>1590</v>
@@ -2370,10 +2370,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C90" s="2">
         <v>1590</v>
@@ -2381,10 +2381,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="C91" s="2">
         <v>1590</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>247</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>249</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>250</v>
@@ -2568,10 +2568,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C108" s="2">
         <v>2757</v>
@@ -2832,10 +2832,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C132" s="2">
         <v>4208</v>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>191</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>277</v>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>281</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>282</v>
@@ -2942,7 +2942,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>283</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>284</v>
@@ -3063,10 +3063,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C153" s="2">
         <v>4757</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>298</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>299</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>301</v>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>302</v>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>303</v>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>304</v>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>305</v>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>307</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>308</v>
@@ -3264,7 +3264,7 @@
         <v>125</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C171" s="2">
         <v>5854</v>
@@ -3305,10 +3305,10 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C175" s="2">
         <v>6120</v>
@@ -3462,7 +3462,7 @@
         <v>141</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="C189" s="2">
         <v>8154</v>
@@ -3473,7 +3473,7 @@
         <v>142</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="C190" s="2">
         <v>8154</v>
@@ -3481,10 +3481,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C191" s="2">
         <v>8310</v>
@@ -3492,10 +3492,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C192" s="2">
         <v>8310</v>
@@ -3580,10 +3580,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>332</v>
+        <v>223</v>
       </c>
       <c r="C200" s="2">
         <v>8677</v>
@@ -3591,10 +3591,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C201" s="2">
         <v>8677</v>
@@ -3602,10 +3602,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>215</v>
+        <v>333</v>
       </c>
       <c r="C202" s="2">
         <v>8677</v>
@@ -3627,7 +3627,7 @@
         <v>152</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C204" s="2">
         <v>8750</v>
